--- a/data_preprocesada_N1/hospedaje_2016.xlsx
+++ b/data_preprocesada_N1/hospedaje_2016.xlsx
@@ -14,24 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="75">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>BARRIO</t>
+    <t>BARRIOS</t>
+  </si>
+  <si>
+    <t>LATITUD_H</t>
+  </si>
+  <si>
+    <t>LONGITUD_H</t>
+  </si>
+  <si>
+    <t>CATEGORIA</t>
+  </si>
+  <si>
+    <t>ANIO</t>
   </si>
   <si>
     <t>LATITUD</t>
   </si>
   <si>
     <t>LONGITUD</t>
-  </si>
-  <si>
-    <t>CATEGORIA</t>
-  </si>
-  <si>
-    <t>ANIO</t>
   </si>
   <si>
     <t>PALACIO</t>
@@ -94,7 +100,7 @@
     <t>COSTILLARES</t>
   </si>
   <si>
-    <t>PUERTA DEL ANGEL</t>
+    <t>PUERTA DEL ÁNGEL</t>
   </si>
   <si>
     <t>ARGÜELLES</t>
@@ -178,7 +184,7 @@
     <t>GUINDALERA</t>
   </si>
   <si>
-    <t>RIOS ROSAS</t>
+    <t>RÍOS ROSAS</t>
   </si>
   <si>
     <t>LISTA</t>
@@ -590,13 +596,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G257"/>
+  <dimension ref="A1:I257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,16 +621,22 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>70315</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>40.42138</v>
@@ -633,21 +645,27 @@
         <v>-3.71101</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G2">
         <v>2016</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>4474110.875</v>
+      </c>
+      <c r="I2">
+        <v>439417.7914</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>100411</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>40.50116</v>
@@ -656,21 +674,27 @@
         <v>-3.67119</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G3">
         <v>2016</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>4483501.173</v>
+      </c>
+      <c r="I3">
+        <v>442483.6118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>183346</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>40.42339</v>
@@ -679,21 +703,27 @@
         <v>-3.69475</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G4">
         <v>2016</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>4475014.208</v>
+      </c>
+      <c r="I4">
+        <v>440900.7625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>183353</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>40.42259</v>
@@ -702,21 +732,27 @@
         <v>-3.69394</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G5">
         <v>2016</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>4475014.208</v>
+      </c>
+      <c r="I5">
+        <v>440900.7625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>241</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>586726</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>40.4246</v>
@@ -725,21 +761,27 @@
         <v>-3.72876</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G6">
         <v>2016</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>4475050.323</v>
+      </c>
+      <c r="I6">
+        <v>436118.4975</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>403</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>831616</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>40.41023</v>
@@ -748,21 +790,27 @@
         <v>-3.69755</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G7">
         <v>2016</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <v>4473417.211</v>
+      </c>
+      <c r="I7">
+        <v>440397.1764</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>412</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>840479</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>40.42183</v>
@@ -771,21 +819,27 @@
         <v>-3.70278</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G8">
         <v>2016</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>4475244.247</v>
+      </c>
+      <c r="I8">
+        <v>440020.8477</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>454</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>884856</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <v>40.42128</v>
@@ -794,21 +848,27 @@
         <v>-3.70825</v>
       </c>
       <c r="F9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G9">
         <v>2016</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>4474110.875</v>
+      </c>
+      <c r="I9">
+        <v>439417.7914</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>474</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>896291</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D10">
         <v>40.38596</v>
@@ -817,21 +877,27 @@
         <v>-3.68654</v>
       </c>
       <c r="F10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G10">
         <v>2016</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10">
+        <v>4471151.447</v>
+      </c>
+      <c r="I10">
+        <v>441682.9396</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>479</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>903707</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D11">
         <v>40.40854</v>
@@ -840,21 +906,27 @@
         <v>-3.69879</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G11">
         <v>2016</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <v>4473417.211</v>
+      </c>
+      <c r="I11">
+        <v>440397.1764</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
-        <v>499</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>945003</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D12">
         <v>40.42454</v>
@@ -863,21 +935,27 @@
         <v>-3.70464</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G12">
         <v>2016</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>4475244.247</v>
+      </c>
+      <c r="I12">
+        <v>440020.8477</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
-        <v>533</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>1037715</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D13">
         <v>40.41279</v>
@@ -886,21 +964,27 @@
         <v>-3.71222</v>
       </c>
       <c r="F13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G13">
         <v>2016</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <v>4474110.875</v>
+      </c>
+      <c r="I13">
+        <v>439417.7914</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
-        <v>590</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>1149636</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D14">
         <v>40.43275</v>
@@ -909,21 +993,27 @@
         <v>-3.65347</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G14">
         <v>2016</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <v>4476462.964</v>
+      </c>
+      <c r="I14">
+        <v>445289.7605</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
-        <v>613</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>1206122</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D15">
         <v>40.41799</v>
@@ -932,21 +1022,27 @@
         <v>-3.67557</v>
       </c>
       <c r="F15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G15">
         <v>2016</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>4474469.277</v>
+      </c>
+      <c r="I15">
+        <v>442791.7959</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
-        <v>819</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>1867724</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D16">
         <v>40.43153</v>
@@ -955,21 +1051,27 @@
         <v>-3.70062</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G16">
         <v>2016</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <v>4476037.29</v>
+      </c>
+      <c r="I16">
+        <v>440530.8517</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
-        <v>822</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>1868069</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D17">
         <v>40.43098</v>
@@ -978,21 +1080,27 @@
         <v>-3.7017</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G17">
         <v>2016</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>4476037.29</v>
+      </c>
+      <c r="I17">
+        <v>440530.8517</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
-        <v>923</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>2301761</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D18">
         <v>40.4403</v>
@@ -1001,21 +1109,27 @@
         <v>-3.67448</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G18">
         <v>2016</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>4477279.652</v>
+      </c>
+      <c r="I18">
+        <v>443241.5164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
-        <v>931</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>2335410</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D19">
         <v>40.41001</v>
@@ -1024,21 +1138,27 @@
         <v>-3.7117</v>
       </c>
       <c r="F19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G19">
         <v>2016</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>4474110.875</v>
+      </c>
+      <c r="I19">
+        <v>439417.7914</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
-        <v>989</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>2673231</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D20">
         <v>40.43209</v>
@@ -1047,21 +1167,27 @@
         <v>-3.69928</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G20">
         <v>2016</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20">
+        <v>4476037.29</v>
+      </c>
+      <c r="I20">
+        <v>440530.8517</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
-        <v>1053</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>2954743</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D21">
         <v>40.42679</v>
@@ -1070,21 +1196,27 @@
         <v>-3.6998</v>
       </c>
       <c r="F21" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G21">
         <v>2016</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21">
+        <v>4475014.208</v>
+      </c>
+      <c r="I21">
+        <v>440900.7625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
-        <v>1064</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>2984936</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D22">
         <v>40.4087</v>
@@ -1093,21 +1225,27 @@
         <v>-3.70023</v>
       </c>
       <c r="F22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G22">
         <v>2016</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>4473417.211</v>
+      </c>
+      <c r="I22">
+        <v>440397.1764</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
-        <v>1068</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>3012570</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D23">
         <v>40.42442</v>
@@ -1116,21 +1254,27 @@
         <v>-3.70533</v>
       </c>
       <c r="F23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G23">
         <v>2016</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>4475244.247</v>
+      </c>
+      <c r="I23">
+        <v>440020.8477</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
-        <v>1085</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>3048220</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D24">
         <v>40.39426</v>
@@ -1139,21 +1283,27 @@
         <v>-3.6961</v>
       </c>
       <c r="F24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G24">
         <v>2016</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24">
+        <v>4471808.825</v>
+      </c>
+      <c r="I24">
+        <v>440672.2536</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
-        <v>1117</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>3203777</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D25">
         <v>40.42947</v>
@@ -1162,21 +1312,27 @@
         <v>-3.70667</v>
       </c>
       <c r="F25" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G25">
         <v>2016</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25">
+        <v>4475244.247</v>
+      </c>
+      <c r="I25">
+        <v>440020.8477</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
-        <v>1143</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>3312444</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D26">
         <v>40.41692</v>
@@ -1185,21 +1341,27 @@
         <v>-3.71035</v>
       </c>
       <c r="F26" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G26">
         <v>2016</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26">
+        <v>4474110.875</v>
+      </c>
+      <c r="I26">
+        <v>439417.7914</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
-        <v>1227</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>3610905</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D27">
         <v>40.42679</v>
@@ -1208,21 +1370,27 @@
         <v>-3.70424</v>
       </c>
       <c r="F27" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G27">
         <v>2016</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>4475244.247</v>
+      </c>
+      <c r="I27">
+        <v>440020.8477</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1">
-        <v>1276</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>3772268</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D28">
         <v>40.42412</v>
@@ -1231,21 +1399,27 @@
         <v>-3.7013</v>
       </c>
       <c r="F28" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G28">
         <v>2016</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28">
+        <v>4475244.247</v>
+      </c>
+      <c r="I28">
+        <v>440020.8477</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
-        <v>1277</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>3773051</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D29">
         <v>40.42611</v>
@@ -1254,21 +1428,27 @@
         <v>-3.66878</v>
       </c>
       <c r="F29" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G29">
         <v>2016</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29">
+        <v>4475153.753</v>
+      </c>
+      <c r="I29">
+        <v>442789.9119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
-        <v>1379</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>4232982</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D30">
         <v>40.40844</v>
@@ -1277,21 +1457,27 @@
         <v>-3.70649</v>
       </c>
       <c r="F30" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G30">
         <v>2016</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30">
+        <v>4473417.211</v>
+      </c>
+      <c r="I30">
+        <v>440397.1764</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1">
-        <v>1382</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>4241259</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D31">
         <v>40.41233</v>
@@ -1300,21 +1486,27 @@
         <v>-3.70587</v>
       </c>
       <c r="F31" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G31">
         <v>2016</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31">
+        <v>4473417.211</v>
+      </c>
+      <c r="I31">
+        <v>440397.1764</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
-        <v>1440</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>4443060</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D32">
         <v>40.41434</v>
@@ -1323,21 +1515,27 @@
         <v>-3.70209</v>
       </c>
       <c r="F32" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G32">
         <v>2016</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32">
+        <v>4474035.577</v>
+      </c>
+      <c r="I32">
+        <v>440880.1521</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1">
-        <v>1446</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>4483457</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D33">
         <v>40.44729</v>
@@ -1346,21 +1544,27 @@
         <v>-3.70205</v>
       </c>
       <c r="F33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G33">
         <v>2016</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33">
+        <v>4478108.124</v>
+      </c>
+      <c r="I33">
+        <v>440893.969</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1">
-        <v>1515</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>4716699</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D34">
         <v>40.4314</v>
@@ -1369,21 +1573,27 @@
         <v>-3.70328</v>
       </c>
       <c r="F34" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G34">
         <v>2016</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34">
+        <v>4476037.29</v>
+      </c>
+      <c r="I34">
+        <v>440530.8517</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1">
-        <v>1530</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>4740591</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D35">
         <v>40.41474</v>
@@ -1392,21 +1602,27 @@
         <v>-3.70684</v>
       </c>
       <c r="F35" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G35">
         <v>2016</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>4474314.564</v>
+      </c>
+      <c r="I35">
+        <v>440226.8442</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1">
-        <v>1657</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>5343327</v>
       </c>
       <c r="C36" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D36">
         <v>40.46503</v>
@@ -1415,21 +1631,27 @@
         <v>-3.71299</v>
       </c>
       <c r="F36" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G36">
         <v>2016</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36">
+        <v>4479644.899</v>
+      </c>
+      <c r="I36">
+        <v>439188.6628</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1">
-        <v>1667</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>5372333</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D37">
         <v>40.45214</v>
@@ -1438,21 +1660,27 @@
         <v>-3.70155</v>
       </c>
       <c r="F37" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G37">
         <v>2016</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>4478108.124</v>
+      </c>
+      <c r="I37">
+        <v>440893.969</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1">
-        <v>1686</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>5451699</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D38">
         <v>40.42424</v>
@@ -1461,21 +1689,27 @@
         <v>-3.69983</v>
       </c>
       <c r="F38" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G38">
         <v>2016</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38">
+        <v>4475014.208</v>
+      </c>
+      <c r="I38">
+        <v>440900.7625</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1">
-        <v>1693</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>5484923</v>
       </c>
       <c r="C39" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D39">
         <v>40.40262</v>
@@ -1484,21 +1718,27 @@
         <v>-3.70042</v>
       </c>
       <c r="F39" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G39">
         <v>2016</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39">
+        <v>4472774.286</v>
+      </c>
+      <c r="I39">
+        <v>441057.6445</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1">
-        <v>1698</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>5510570</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D40">
         <v>40.42051</v>
@@ -1507,21 +1747,27 @@
         <v>-3.69735</v>
       </c>
       <c r="F40" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G40">
         <v>2016</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40">
+        <v>4475014.208</v>
+      </c>
+      <c r="I40">
+        <v>440900.7625</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1">
-        <v>1731</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>5630090</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D41">
         <v>40.41148</v>
@@ -1530,21 +1776,27 @@
         <v>-3.71172</v>
       </c>
       <c r="F41" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G41">
         <v>2016</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41">
+        <v>4474110.875</v>
+      </c>
+      <c r="I41">
+        <v>439417.7914</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1">
-        <v>1750</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>5699523</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D42">
         <v>40.40869</v>
@@ -1553,21 +1805,27 @@
         <v>-3.70072</v>
       </c>
       <c r="F42" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G42">
         <v>2016</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>4473417.211</v>
+      </c>
+      <c r="I42">
+        <v>440397.1764</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1">
-        <v>1767</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>5748366</v>
       </c>
       <c r="C43" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D43">
         <v>40.39549</v>
@@ -1576,21 +1834,27 @@
         <v>-3.72994</v>
       </c>
       <c r="F43" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G43">
         <v>2016</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43">
+        <v>4472031.606</v>
+      </c>
+      <c r="I43">
+        <v>438190.5428</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1">
-        <v>1808</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>5929004</v>
       </c>
       <c r="C44" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D44">
         <v>40.47458</v>
@@ -1599,21 +1863,27 @@
         <v>-3.66545</v>
       </c>
       <c r="F44" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G44">
         <v>2016</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44">
+        <v>4480877.84</v>
+      </c>
+      <c r="I44">
+        <v>443334.1197</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1">
-        <v>1809</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>5931632</v>
       </c>
       <c r="C45" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D45">
         <v>40.47452</v>
@@ -1622,21 +1892,27 @@
         <v>-3.66569</v>
       </c>
       <c r="F45" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G45">
         <v>2016</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>4480877.84</v>
+      </c>
+      <c r="I45">
+        <v>443334.1197</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1">
-        <v>1839</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>6030372</v>
       </c>
       <c r="C46" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D46">
         <v>40.41943</v>
@@ -1645,21 +1921,27 @@
         <v>-3.70132</v>
       </c>
       <c r="F46" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G46">
         <v>2016</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46">
+        <v>4474314.564</v>
+      </c>
+      <c r="I46">
+        <v>440226.8442</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1">
-        <v>1840</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>6030551</v>
       </c>
       <c r="C47" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D47">
         <v>40.41135</v>
@@ -1668,21 +1950,27 @@
         <v>-3.73024</v>
       </c>
       <c r="F47" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G47">
         <v>2016</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47">
+        <v>4473487.258</v>
+      </c>
+      <c r="I47">
+        <v>437907.9825</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1">
-        <v>1849</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>6067959</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D48">
         <v>40.42648</v>
@@ -1691,21 +1979,27 @@
         <v>-3.71575</v>
       </c>
       <c r="F48" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G48">
         <v>2016</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48">
+        <v>4475533.294</v>
+      </c>
+      <c r="I48">
+        <v>439109.0847</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1">
-        <v>1865</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>6131459</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D49">
         <v>40.39659</v>
@@ -1714,21 +2008,27 @@
         <v>-3.62602</v>
       </c>
       <c r="F49" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G49">
         <v>2016</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>4471000.988</v>
+      </c>
+      <c r="I49">
+        <v>450789.392</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1">
-        <v>1942</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>6399416</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D50">
         <v>40.44124</v>
@@ -1737,21 +2037,27 @@
         <v>-3.63312</v>
       </c>
       <c r="F50" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G50">
         <v>2016</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50">
+        <v>4477373.192</v>
+      </c>
+      <c r="I50">
+        <v>446491.5939</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1">
-        <v>1944</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>6410739</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D51">
         <v>40.41359</v>
@@ -1760,21 +2066,27 @@
         <v>-3.70231</v>
       </c>
       <c r="F51" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G51">
         <v>2016</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51">
+        <v>4473417.211</v>
+      </c>
+      <c r="I51">
+        <v>440397.1764</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1">
-        <v>1951</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>6423447</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D52">
         <v>40.44424</v>
@@ -1783,21 +2095,27 @@
         <v>-3.64799</v>
       </c>
       <c r="F52" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G52">
         <v>2016</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>4477117.637</v>
+      </c>
+      <c r="I52">
+        <v>444582.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1">
-        <v>1979</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>6500469</v>
       </c>
       <c r="C53" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D53">
         <v>40.40855</v>
@@ -1806,21 +2124,27 @@
         <v>-3.7088</v>
       </c>
       <c r="F53" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G53">
         <v>2016</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53">
+        <v>4473417.211</v>
+      </c>
+      <c r="I53">
+        <v>440397.1764</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1">
-        <v>2033</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>6650003</v>
       </c>
       <c r="C54" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D54">
         <v>40.41548</v>
@@ -1829,21 +2153,27 @@
         <v>-3.70806</v>
       </c>
       <c r="F54" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G54">
         <v>2016</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54">
+        <v>4474314.564</v>
+      </c>
+      <c r="I54">
+        <v>440226.8442</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1">
-        <v>2035</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>6655077</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D55">
         <v>40.43022</v>
@@ -1852,21 +2182,27 @@
         <v>-3.68547</v>
       </c>
       <c r="F55" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G55">
         <v>2016</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55">
+        <v>4476104.298</v>
+      </c>
+      <c r="I55">
+        <v>441959.5528</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1">
-        <v>2062</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>6724149</v>
       </c>
       <c r="C56" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D56">
         <v>40.44637</v>
@@ -1875,21 +2211,27 @@
         <v>-3.67523</v>
       </c>
       <c r="F56" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G56">
         <v>2016</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="H56">
+        <v>4477733.182</v>
+      </c>
+      <c r="I56">
+        <v>442929.7851</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1">
-        <v>2065</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>6736860</v>
       </c>
       <c r="C57" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D57">
         <v>40.41099</v>
@@ -1898,21 +2240,27 @@
         <v>-3.69647</v>
       </c>
       <c r="F57" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G57">
         <v>2016</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>4473417.211</v>
+      </c>
+      <c r="I57">
+        <v>440397.1764</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1">
-        <v>2073</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>6771783</v>
       </c>
       <c r="C58" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D58">
         <v>40.41104</v>
@@ -1921,21 +2269,27 @@
         <v>-3.697</v>
       </c>
       <c r="F58" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G58">
         <v>2016</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="H58">
+        <v>4473417.211</v>
+      </c>
+      <c r="I58">
+        <v>440397.1764</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1">
-        <v>2084</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>6806362</v>
       </c>
       <c r="C59" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D59">
         <v>40.37607</v>
@@ -1944,21 +2298,27 @@
         <v>-3.61113</v>
       </c>
       <c r="F59" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G59">
         <v>2016</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59">
+        <v>4466332.267</v>
+      </c>
+      <c r="I59">
+        <v>447496.1334</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1">
-        <v>2092</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>6834233</v>
       </c>
       <c r="C60" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D60">
         <v>40.40793</v>
@@ -1967,21 +2327,27 @@
         <v>-3.7088</v>
       </c>
       <c r="F60" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G60">
         <v>2016</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60">
+        <v>4473417.211</v>
+      </c>
+      <c r="I60">
+        <v>440397.1764</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1">
-        <v>2119</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>6891783</v>
       </c>
       <c r="C61" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D61">
         <v>40.45227</v>
@@ -1990,21 +2356,27 @@
         <v>-3.67576</v>
       </c>
       <c r="F61" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G61">
         <v>2016</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61">
+        <v>4478520.651</v>
+      </c>
+      <c r="I61">
+        <v>442584.7337</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1">
-        <v>2156</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>6974443</v>
       </c>
       <c r="C62" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D62">
         <v>40.41546</v>
@@ -2013,21 +2385,27 @@
         <v>-3.70702</v>
       </c>
       <c r="F62" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G62">
         <v>2016</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>4474314.564</v>
+      </c>
+      <c r="I62">
+        <v>440226.8442</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1">
-        <v>2159</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>6983569</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D63">
         <v>40.42293</v>
@@ -2036,21 +2414,27 @@
         <v>-3.6948</v>
       </c>
       <c r="F63" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G63">
         <v>2016</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="H63">
+        <v>4475014.208</v>
+      </c>
+      <c r="I63">
+        <v>440900.7625</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1">
-        <v>2175</v>
+        <v>62</v>
       </c>
       <c r="B64">
         <v>7014936</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D64">
         <v>40.41079</v>
@@ -2059,21 +2443,27 @@
         <v>-3.70742</v>
       </c>
       <c r="F64" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G64">
         <v>2016</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="H64">
+        <v>4473417.211</v>
+      </c>
+      <c r="I64">
+        <v>440397.1764</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1">
-        <v>2177</v>
+        <v>63</v>
       </c>
       <c r="B65">
         <v>7015422</v>
       </c>
       <c r="C65" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D65">
         <v>40.39007</v>
@@ -2082,21 +2472,27 @@
         <v>-3.66905</v>
       </c>
       <c r="F65" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G65">
         <v>2016</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="H65">
+        <v>4471262.193</v>
+      </c>
+      <c r="I65">
+        <v>443316.4678</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1">
-        <v>2181</v>
+        <v>64</v>
       </c>
       <c r="B66">
         <v>7026968</v>
       </c>
       <c r="C66" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D66">
         <v>40.44985</v>
@@ -2105,21 +2501,27 @@
         <v>-3.7135</v>
       </c>
       <c r="F66" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G66">
         <v>2016</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="H66">
+        <v>4478627.02</v>
+      </c>
+      <c r="I66">
+        <v>437391.5065</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1">
-        <v>2202</v>
+        <v>65</v>
       </c>
       <c r="B67">
         <v>7070725</v>
       </c>
       <c r="C67" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D67">
         <v>40.40787</v>
@@ -2128,21 +2530,27 @@
         <v>-3.69595</v>
       </c>
       <c r="F67" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G67">
         <v>2016</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="H67">
+        <v>4473417.211</v>
+      </c>
+      <c r="I67">
+        <v>440397.1764</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1">
-        <v>2209</v>
+        <v>66</v>
       </c>
       <c r="B68">
         <v>7098216</v>
       </c>
       <c r="C68" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D68">
         <v>40.41454</v>
@@ -2151,21 +2559,27 @@
         <v>-3.70052</v>
       </c>
       <c r="F68" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G68">
         <v>2016</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="H68">
+        <v>4474035.577</v>
+      </c>
+      <c r="I68">
+        <v>440880.1521</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1">
-        <v>2211</v>
+        <v>67</v>
       </c>
       <c r="B69">
         <v>7103562</v>
       </c>
       <c r="C69" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D69">
         <v>40.4224</v>
@@ -2174,21 +2588,27 @@
         <v>-3.70225</v>
       </c>
       <c r="F69" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G69">
         <v>2016</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="H69">
+        <v>4475244.247</v>
+      </c>
+      <c r="I69">
+        <v>440020.8477</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1">
-        <v>2213</v>
+        <v>68</v>
       </c>
       <c r="B70">
         <v>7108690</v>
       </c>
       <c r="C70" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D70">
         <v>40.43637</v>
@@ -2197,21 +2617,27 @@
         <v>-3.709</v>
       </c>
       <c r="F70" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G70">
         <v>2016</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>4476214.595</v>
+      </c>
+      <c r="I70">
+        <v>439947.5584</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1">
-        <v>2260</v>
+        <v>69</v>
       </c>
       <c r="B71">
         <v>7209181</v>
       </c>
       <c r="C71" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D71">
         <v>40.43645</v>
@@ -2220,21 +2646,27 @@
         <v>-3.67968</v>
       </c>
       <c r="F71" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G71">
         <v>2016</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="H71">
+        <v>4476104.298</v>
+      </c>
+      <c r="I71">
+        <v>441959.5528</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1">
-        <v>2270</v>
+        <v>70</v>
       </c>
       <c r="B72">
         <v>7236326</v>
       </c>
       <c r="C72" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D72">
         <v>40.40727</v>
@@ -2243,21 +2675,27 @@
         <v>-3.69609</v>
       </c>
       <c r="F72" t="s">
+        <v>73</v>
+      </c>
+      <c r="G72">
+        <v>2016</v>
+      </c>
+      <c r="H72">
+        <v>4473417.211</v>
+      </c>
+      <c r="I72">
+        <v>440397.1764</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="1">
         <v>71</v>
-      </c>
-      <c r="G72">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="1">
-        <v>2316</v>
       </c>
       <c r="B73">
         <v>7406773</v>
       </c>
       <c r="C73" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D73">
         <v>40.40581</v>
@@ -2266,21 +2704,27 @@
         <v>-3.67356</v>
       </c>
       <c r="F73" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G73">
         <v>2016</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="H73">
+        <v>4472859.079</v>
+      </c>
+      <c r="I73">
+        <v>442407.5013</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1">
-        <v>2338</v>
+        <v>72</v>
       </c>
       <c r="B74">
         <v>7487035</v>
       </c>
       <c r="C74" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D74">
         <v>40.49914</v>
@@ -2289,21 +2733,27 @@
         <v>-3.65386</v>
       </c>
       <c r="F74" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G74">
         <v>2016</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="H74">
+        <v>4482753.289</v>
+      </c>
+      <c r="I74">
+        <v>446176.0779</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1">
-        <v>2344</v>
+        <v>73</v>
       </c>
       <c r="B75">
         <v>7505759</v>
       </c>
       <c r="C75" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D75">
         <v>40.43143</v>
@@ -2312,21 +2762,27 @@
         <v>-3.68477</v>
       </c>
       <c r="F75" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G75">
         <v>2016</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="H75">
+        <v>4476104.298</v>
+      </c>
+      <c r="I75">
+        <v>441959.5528</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1">
-        <v>2357</v>
+        <v>74</v>
       </c>
       <c r="B76">
         <v>7540534</v>
       </c>
       <c r="C76" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D76">
         <v>40.41589</v>
@@ -2335,21 +2791,27 @@
         <v>-3.70517</v>
       </c>
       <c r="F76" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G76">
         <v>2016</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="H76">
+        <v>4474314.564</v>
+      </c>
+      <c r="I76">
+        <v>440226.8442</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1">
-        <v>2381</v>
+        <v>75</v>
       </c>
       <c r="B77">
         <v>7624956</v>
       </c>
       <c r="C77" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D77">
         <v>40.40992</v>
@@ -2358,21 +2820,27 @@
         <v>-3.70445</v>
       </c>
       <c r="F77" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G77">
         <v>2016</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="H77">
+        <v>4473417.211</v>
+      </c>
+      <c r="I77">
+        <v>440397.1764</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1">
-        <v>2446</v>
+        <v>76</v>
       </c>
       <c r="B78">
         <v>7832520</v>
       </c>
       <c r="C78" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D78">
         <v>40.41502</v>
@@ -2381,21 +2849,27 @@
         <v>-3.69871</v>
       </c>
       <c r="F78" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G78">
         <v>2016</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="H78">
+        <v>4474035.577</v>
+      </c>
+      <c r="I78">
+        <v>440880.1521</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1">
-        <v>2500</v>
+        <v>77</v>
       </c>
       <c r="B79">
         <v>8068242</v>
       </c>
       <c r="C79" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D79">
         <v>40.42585</v>
@@ -2404,21 +2878,27 @@
         <v>-3.70216</v>
       </c>
       <c r="F79" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G79">
         <v>2016</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>4475244.247</v>
+      </c>
+      <c r="I79">
+        <v>440020.8477</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1">
-        <v>2612</v>
+        <v>78</v>
       </c>
       <c r="B80">
         <v>8482861</v>
       </c>
       <c r="C80" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D80">
         <v>40.40046</v>
@@ -2427,21 +2907,27 @@
         <v>-3.70832</v>
       </c>
       <c r="F80" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G80">
         <v>2016</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="H80">
+        <v>4472513.434</v>
+      </c>
+      <c r="I80">
+        <v>439982.8536</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1">
-        <v>2622</v>
+        <v>79</v>
       </c>
       <c r="B81">
         <v>8519462</v>
       </c>
       <c r="C81" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D81">
         <v>40.41841</v>
@@ -2450,21 +2936,27 @@
         <v>-3.71092</v>
       </c>
       <c r="F81" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G81">
         <v>2016</v>
       </c>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="H81">
+        <v>4474110.875</v>
+      </c>
+      <c r="I81">
+        <v>439417.7914</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1">
-        <v>2624</v>
+        <v>80</v>
       </c>
       <c r="B82">
         <v>8520533</v>
       </c>
       <c r="C82" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D82">
         <v>40.41936</v>
@@ -2473,21 +2965,27 @@
         <v>-3.71072</v>
       </c>
       <c r="F82" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G82">
         <v>2016</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>4474110.875</v>
+      </c>
+      <c r="I82">
+        <v>439417.7914</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1">
-        <v>2629</v>
+        <v>81</v>
       </c>
       <c r="B83">
         <v>8549390</v>
       </c>
       <c r="C83" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D83">
         <v>40.4126</v>
@@ -2496,21 +2994,27 @@
         <v>-3.71171</v>
       </c>
       <c r="F83" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G83">
         <v>2016</v>
       </c>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="H83">
+        <v>4474110.875</v>
+      </c>
+      <c r="I83">
+        <v>439417.7914</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1">
-        <v>2642</v>
+        <v>82</v>
       </c>
       <c r="B84">
         <v>8601284</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D84">
         <v>40.41661</v>
@@ -2519,21 +3023,27 @@
         <v>-3.67578</v>
       </c>
       <c r="F84" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G84">
         <v>2016</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>4474469.277</v>
+      </c>
+      <c r="I84">
+        <v>442791.7959</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1">
-        <v>2687</v>
+        <v>83</v>
       </c>
       <c r="B85">
         <v>8776371</v>
       </c>
       <c r="C85" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D85">
         <v>40.38839</v>
@@ -2542,21 +3052,27 @@
         <v>-3.73968</v>
       </c>
       <c r="F85" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G85">
         <v>2016</v>
       </c>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="H85">
+        <v>4470681.208</v>
+      </c>
+      <c r="I85">
+        <v>436700.7182</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1">
-        <v>2694</v>
+        <v>84</v>
       </c>
       <c r="B86">
         <v>8796971</v>
       </c>
       <c r="C86" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D86">
         <v>40.38625</v>
@@ -2565,21 +3081,27 @@
         <v>-3.668</v>
       </c>
       <c r="F86" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G86">
         <v>2016</v>
       </c>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="H86">
+        <v>4471262.193</v>
+      </c>
+      <c r="I86">
+        <v>443316.4678</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1">
-        <v>2705</v>
+        <v>85</v>
       </c>
       <c r="B87">
         <v>8842678</v>
       </c>
       <c r="C87" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D87">
         <v>40.41032</v>
@@ -2588,21 +3110,27 @@
         <v>-3.69767</v>
       </c>
       <c r="F87" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G87">
         <v>2016</v>
       </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="H87">
+        <v>4473417.211</v>
+      </c>
+      <c r="I87">
+        <v>440397.1764</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1">
-        <v>2727</v>
+        <v>86</v>
       </c>
       <c r="B88">
         <v>8902683</v>
       </c>
       <c r="C88" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D88">
         <v>40.45418</v>
@@ -2611,21 +3139,27 @@
         <v>-3.70218</v>
       </c>
       <c r="F88" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G88">
         <v>2016</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="H88">
+        <v>4478108.124</v>
+      </c>
+      <c r="I88">
+        <v>440893.969</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1">
-        <v>2735</v>
+        <v>87</v>
       </c>
       <c r="B89">
         <v>8928899</v>
       </c>
       <c r="C89" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D89">
         <v>40.40832</v>
@@ -2634,21 +3168,27 @@
         <v>-3.70972</v>
       </c>
       <c r="F89" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G89">
         <v>2016</v>
       </c>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="H89">
+        <v>4473417.211</v>
+      </c>
+      <c r="I89">
+        <v>440397.1764</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1">
-        <v>2766</v>
+        <v>88</v>
       </c>
       <c r="B90">
         <v>9084945</v>
       </c>
       <c r="C90" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D90">
         <v>40.46183</v>
@@ -2657,21 +3197,27 @@
         <v>-3.69931</v>
       </c>
       <c r="F90" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G90">
         <v>2016</v>
       </c>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="H90">
+        <v>4479832.029</v>
+      </c>
+      <c r="I90">
+        <v>440304.6074</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1">
-        <v>2775</v>
+        <v>89</v>
       </c>
       <c r="B91">
         <v>9109924</v>
       </c>
       <c r="C91" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D91">
         <v>40.41263</v>
@@ -2680,21 +3226,27 @@
         <v>-3.69803</v>
       </c>
       <c r="F91" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G91">
         <v>2016</v>
       </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="H91">
+        <v>4474035.577</v>
+      </c>
+      <c r="I91">
+        <v>440880.1521</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1">
-        <v>2776</v>
+        <v>90</v>
       </c>
       <c r="B92">
         <v>9122942</v>
       </c>
       <c r="C92" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D92">
         <v>40.43357</v>
@@ -2703,21 +3255,27 @@
         <v>-3.65871</v>
       </c>
       <c r="F92" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G92">
         <v>2016</v>
       </c>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="H92">
+        <v>4476721.345</v>
+      </c>
+      <c r="I92">
+        <v>444934.1577</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1">
-        <v>2777</v>
+        <v>91</v>
       </c>
       <c r="B93">
         <v>9124408</v>
       </c>
       <c r="C93" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D93">
         <v>40.4114</v>
@@ -2726,21 +3284,27 @@
         <v>-3.70145</v>
       </c>
       <c r="F93" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G93">
         <v>2016</v>
       </c>
-    </row>
-    <row r="94" spans="1:7">
+      <c r="H93">
+        <v>4473417.211</v>
+      </c>
+      <c r="I93">
+        <v>440397.1764</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1">
-        <v>2783</v>
+        <v>92</v>
       </c>
       <c r="B94">
         <v>9142639</v>
       </c>
       <c r="C94" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D94">
         <v>40.40327</v>
@@ -2749,21 +3313,27 @@
         <v>-3.69592</v>
       </c>
       <c r="F94" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G94">
         <v>2016</v>
       </c>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="H94">
+        <v>4472774.286</v>
+      </c>
+      <c r="I94">
+        <v>441057.6445</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1">
-        <v>2819</v>
+        <v>93</v>
       </c>
       <c r="B95">
         <v>9274906</v>
       </c>
       <c r="C95" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D95">
         <v>40.40773</v>
@@ -2772,21 +3342,27 @@
         <v>-3.70736</v>
       </c>
       <c r="F95" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G95">
         <v>2016</v>
       </c>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="H95">
+        <v>4473417.211</v>
+      </c>
+      <c r="I95">
+        <v>440397.1764</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1">
-        <v>2868</v>
+        <v>94</v>
       </c>
       <c r="B96">
         <v>9443277</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D96">
         <v>40.4211</v>
@@ -2795,21 +3371,27 @@
         <v>-3.69864</v>
       </c>
       <c r="F96" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G96">
         <v>2016</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>4475014.208</v>
+      </c>
+      <c r="I96">
+        <v>440900.7625</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1">
-        <v>2918</v>
+        <v>95</v>
       </c>
       <c r="B97">
         <v>9608728</v>
       </c>
       <c r="C97" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D97">
         <v>40.42512</v>
@@ -2818,21 +3400,27 @@
         <v>-3.67128</v>
       </c>
       <c r="F97" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G97">
         <v>2016</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>4475153.753</v>
+      </c>
+      <c r="I97">
+        <v>442789.9119</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1">
-        <v>2938</v>
+        <v>96</v>
       </c>
       <c r="B98">
         <v>9694272</v>
       </c>
       <c r="C98" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D98">
         <v>40.41052</v>
@@ -2841,21 +3429,27 @@
         <v>-3.70527</v>
       </c>
       <c r="F98" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G98">
         <v>2016</v>
       </c>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="H98">
+        <v>4473417.211</v>
+      </c>
+      <c r="I98">
+        <v>440397.1764</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1">
-        <v>2960</v>
+        <v>97</v>
       </c>
       <c r="B99">
         <v>9761470</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D99">
         <v>40.42504</v>
@@ -2864,21 +3458,27 @@
         <v>-3.70055</v>
       </c>
       <c r="F99" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G99">
         <v>2016</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>4475014.208</v>
+      </c>
+      <c r="I99">
+        <v>440900.7625</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1">
-        <v>2963</v>
+        <v>98</v>
       </c>
       <c r="B100">
         <v>9764502</v>
       </c>
       <c r="C100" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D100">
         <v>40.4105</v>
@@ -2887,21 +3487,27 @@
         <v>-3.70918</v>
       </c>
       <c r="F100" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G100">
         <v>2016</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>4474110.875</v>
+      </c>
+      <c r="I100">
+        <v>439417.7914</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1">
-        <v>2976</v>
+        <v>99</v>
       </c>
       <c r="B101">
         <v>9800010</v>
       </c>
       <c r="C101" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D101">
         <v>40.45485</v>
@@ -2910,21 +3516,27 @@
         <v>-3.69684</v>
       </c>
       <c r="F101" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G101">
         <v>2016</v>
       </c>
-    </row>
-    <row r="102" spans="1:7">
+      <c r="H101">
+        <v>4478108.124</v>
+      </c>
+      <c r="I101">
+        <v>440893.969</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1">
-        <v>2979</v>
+        <v>100</v>
       </c>
       <c r="B102">
         <v>9804644</v>
       </c>
       <c r="C102" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D102">
         <v>40.40859</v>
@@ -2933,21 +3545,27 @@
         <v>-3.70343</v>
       </c>
       <c r="F102" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G102">
         <v>2016</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102">
+        <v>4473417.211</v>
+      </c>
+      <c r="I102">
+        <v>440397.1764</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1">
-        <v>2994</v>
+        <v>101</v>
       </c>
       <c r="B103">
         <v>9849901</v>
       </c>
       <c r="C103" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D103">
         <v>40.42721</v>
@@ -2956,21 +3574,27 @@
         <v>-3.71146</v>
       </c>
       <c r="F103" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G103">
         <v>2016</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>4475244.247</v>
+      </c>
+      <c r="I103">
+        <v>440020.8477</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1">
-        <v>3007</v>
+        <v>102</v>
       </c>
       <c r="B104">
         <v>9883116</v>
       </c>
       <c r="C104" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D104">
         <v>40.41739</v>
@@ -2979,21 +3603,27 @@
         <v>-3.70766</v>
       </c>
       <c r="F104" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G104">
         <v>2016</v>
       </c>
-    </row>
-    <row r="105" spans="1:7">
+      <c r="H104">
+        <v>4474314.564</v>
+      </c>
+      <c r="I104">
+        <v>440226.8442</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1">
-        <v>3010</v>
+        <v>103</v>
       </c>
       <c r="B105">
         <v>9894564</v>
       </c>
       <c r="C105" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D105">
         <v>40.441</v>
@@ -3002,21 +3632,27 @@
         <v>-3.70885</v>
       </c>
       <c r="F105" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G105">
         <v>2016</v>
       </c>
-    </row>
-    <row r="106" spans="1:7">
+      <c r="H105">
+        <v>4477158.887</v>
+      </c>
+      <c r="I105">
+        <v>439682.3814</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1">
-        <v>3014</v>
+        <v>104</v>
       </c>
       <c r="B106">
         <v>9901505</v>
       </c>
       <c r="C106" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D106">
         <v>40.41009</v>
@@ -3025,21 +3661,27 @@
         <v>-3.70715</v>
       </c>
       <c r="F106" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G106">
         <v>2016</v>
       </c>
-    </row>
-    <row r="107" spans="1:7">
+      <c r="H106">
+        <v>4473417.211</v>
+      </c>
+      <c r="I106">
+        <v>440397.1764</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1">
-        <v>3026</v>
+        <v>105</v>
       </c>
       <c r="B107">
         <v>9941810</v>
       </c>
       <c r="C107" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D107">
         <v>40.41273</v>
@@ -3048,21 +3690,27 @@
         <v>-3.72523</v>
       </c>
       <c r="F107" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G107">
         <v>2016</v>
       </c>
-    </row>
-    <row r="108" spans="1:7">
+      <c r="H107">
+        <v>4473487.258</v>
+      </c>
+      <c r="I107">
+        <v>437907.9825</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1">
-        <v>3030</v>
+        <v>106</v>
       </c>
       <c r="B108">
         <v>9952708</v>
       </c>
       <c r="C108" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D108">
         <v>40.42169</v>
@@ -3071,21 +3719,27 @@
         <v>-3.7131</v>
       </c>
       <c r="F108" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G108">
         <v>2016</v>
       </c>
-    </row>
-    <row r="109" spans="1:7">
+      <c r="H108">
+        <v>4474110.875</v>
+      </c>
+      <c r="I108">
+        <v>439417.7914</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1">
-        <v>3062</v>
+        <v>107</v>
       </c>
       <c r="B109">
         <v>10095298</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D109">
         <v>40.42217</v>
@@ -3094,21 +3748,27 @@
         <v>-3.69969</v>
       </c>
       <c r="F109" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G109">
         <v>2016</v>
       </c>
-    </row>
-    <row r="110" spans="1:7">
+      <c r="H109">
+        <v>4475014.208</v>
+      </c>
+      <c r="I109">
+        <v>440900.7625</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1">
-        <v>3094</v>
+        <v>108</v>
       </c>
       <c r="B110">
         <v>10260390</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D110">
         <v>40.42184</v>
@@ -3117,21 +3777,27 @@
         <v>-3.69389</v>
       </c>
       <c r="F110" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G110">
         <v>2016</v>
       </c>
-    </row>
-    <row r="111" spans="1:7">
+      <c r="H110">
+        <v>4475014.208</v>
+      </c>
+      <c r="I110">
+        <v>440900.7625</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1">
-        <v>3113</v>
+        <v>109</v>
       </c>
       <c r="B111">
         <v>10398681</v>
       </c>
       <c r="C111" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D111">
         <v>40.445</v>
@@ -3140,21 +3806,27 @@
         <v>-3.67752</v>
       </c>
       <c r="F111" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G111">
         <v>2016</v>
       </c>
-    </row>
-    <row r="112" spans="1:7">
+      <c r="H111">
+        <v>4477733.182</v>
+      </c>
+      <c r="I111">
+        <v>442929.7851</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1">
-        <v>3137</v>
+        <v>110</v>
       </c>
       <c r="B112">
         <v>10509732</v>
       </c>
       <c r="C112" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D112">
         <v>40.39428</v>
@@ -3163,21 +3835,27 @@
         <v>-3.69806</v>
       </c>
       <c r="F112" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G112">
         <v>2016</v>
       </c>
-    </row>
-    <row r="113" spans="1:7">
+      <c r="H112">
+        <v>4471808.825</v>
+      </c>
+      <c r="I112">
+        <v>440672.2536</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1">
-        <v>3151</v>
+        <v>111</v>
       </c>
       <c r="B113">
         <v>10563232</v>
       </c>
       <c r="C113" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D113">
         <v>40.41769</v>
@@ -3186,21 +3864,27 @@
         <v>-3.67759</v>
       </c>
       <c r="F113" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G113">
         <v>2016</v>
       </c>
-    </row>
-    <row r="114" spans="1:7">
+      <c r="H113">
+        <v>4474469.277</v>
+      </c>
+      <c r="I113">
+        <v>442791.7959</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1">
-        <v>3154</v>
+        <v>112</v>
       </c>
       <c r="B114">
         <v>10586228</v>
       </c>
       <c r="C114" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D114">
         <v>40.41001</v>
@@ -3209,21 +3893,27 @@
         <v>-3.69792</v>
       </c>
       <c r="F114" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G114">
         <v>2016</v>
       </c>
-    </row>
-    <row r="115" spans="1:7">
+      <c r="H114">
+        <v>4473417.211</v>
+      </c>
+      <c r="I114">
+        <v>440397.1764</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1">
-        <v>3167</v>
+        <v>113</v>
       </c>
       <c r="B115">
         <v>10681391</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D115">
         <v>40.42107</v>
@@ -3232,21 +3922,27 @@
         <v>-3.70039</v>
       </c>
       <c r="F115" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G115">
         <v>2016</v>
       </c>
-    </row>
-    <row r="116" spans="1:7">
+      <c r="H115">
+        <v>4475014.208</v>
+      </c>
+      <c r="I115">
+        <v>440900.7625</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1">
-        <v>3180</v>
+        <v>114</v>
       </c>
       <c r="B116">
         <v>10744350</v>
       </c>
       <c r="C116" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D116">
         <v>40.41707</v>
@@ -3255,21 +3951,27 @@
         <v>-3.70509</v>
       </c>
       <c r="F116" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G116">
         <v>2016</v>
       </c>
-    </row>
-    <row r="117" spans="1:7">
+      <c r="H116">
+        <v>4474314.564</v>
+      </c>
+      <c r="I116">
+        <v>440226.8442</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1">
-        <v>3211</v>
+        <v>115</v>
       </c>
       <c r="B117">
         <v>10893923</v>
       </c>
       <c r="C117" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D117">
         <v>40.40875</v>
@@ -3278,21 +3980,27 @@
         <v>-3.70025</v>
       </c>
       <c r="F117" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G117">
         <v>2016</v>
       </c>
-    </row>
-    <row r="118" spans="1:7">
+      <c r="H117">
+        <v>4473417.211</v>
+      </c>
+      <c r="I117">
+        <v>440397.1764</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1">
-        <v>3217</v>
+        <v>116</v>
       </c>
       <c r="B118">
         <v>10913935</v>
       </c>
       <c r="C118" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D118">
         <v>40.41783</v>
@@ -3301,21 +4009,27 @@
         <v>-3.70059</v>
       </c>
       <c r="F118" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G118">
         <v>2016</v>
       </c>
-    </row>
-    <row r="119" spans="1:7">
+      <c r="H118">
+        <v>4474314.564</v>
+      </c>
+      <c r="I118">
+        <v>440226.8442</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1">
-        <v>3221</v>
+        <v>117</v>
       </c>
       <c r="B119">
         <v>10914226</v>
       </c>
       <c r="C119" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D119">
         <v>40.41976</v>
@@ -3324,21 +4038,27 @@
         <v>-3.70069</v>
       </c>
       <c r="F119" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G119">
         <v>2016</v>
       </c>
-    </row>
-    <row r="120" spans="1:7">
+      <c r="H119">
+        <v>4474314.564</v>
+      </c>
+      <c r="I119">
+        <v>440226.8442</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1">
-        <v>3227</v>
+        <v>118</v>
       </c>
       <c r="B120">
         <v>10960810</v>
       </c>
       <c r="C120" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D120">
         <v>40.44108</v>
@@ -3347,21 +4067,27 @@
         <v>-3.66982</v>
       </c>
       <c r="F120" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G120">
         <v>2016</v>
       </c>
-    </row>
-    <row r="121" spans="1:7">
+      <c r="H120">
+        <v>4477279.652</v>
+      </c>
+      <c r="I120">
+        <v>443241.5164</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1">
-        <v>3244</v>
+        <v>119</v>
       </c>
       <c r="B121">
         <v>11038737</v>
       </c>
       <c r="C121" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D121">
         <v>40.39126</v>
@@ -3370,21 +4096,27 @@
         <v>-3.69343</v>
       </c>
       <c r="F121" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G121">
         <v>2016</v>
       </c>
-    </row>
-    <row r="122" spans="1:7">
+      <c r="H121">
+        <v>4471151.447</v>
+      </c>
+      <c r="I121">
+        <v>441682.9396</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1">
-        <v>3267</v>
+        <v>120</v>
       </c>
       <c r="B122">
         <v>11112633</v>
       </c>
       <c r="C122" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D122">
         <v>40.42899</v>
@@ -3393,21 +4125,27 @@
         <v>-3.71997</v>
       </c>
       <c r="F122" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G122">
         <v>2016</v>
       </c>
-    </row>
-    <row r="123" spans="1:7">
+      <c r="H122">
+        <v>4475533.294</v>
+      </c>
+      <c r="I122">
+        <v>439109.0847</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1">
-        <v>3276</v>
+        <v>121</v>
       </c>
       <c r="B123">
         <v>11138479</v>
       </c>
       <c r="C123" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D123">
         <v>40.43615</v>
@@ -3416,21 +4154,27 @@
         <v>-3.68095</v>
       </c>
       <c r="F123" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G123">
         <v>2016</v>
       </c>
-    </row>
-    <row r="124" spans="1:7">
+      <c r="H123">
+        <v>4476104.298</v>
+      </c>
+      <c r="I123">
+        <v>441959.5528</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1">
-        <v>3297</v>
+        <v>122</v>
       </c>
       <c r="B124">
         <v>11203682</v>
       </c>
       <c r="C124" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D124">
         <v>40.40992</v>
@@ -3439,21 +4183,27 @@
         <v>-3.69508</v>
       </c>
       <c r="F124" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G124">
         <v>2016</v>
       </c>
-    </row>
-    <row r="125" spans="1:7">
+      <c r="H124">
+        <v>4473417.211</v>
+      </c>
+      <c r="I124">
+        <v>440397.1764</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1">
-        <v>3340</v>
+        <v>123</v>
       </c>
       <c r="B125">
         <v>11375664</v>
       </c>
       <c r="C125" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D125">
         <v>40.47594</v>
@@ -3462,21 +4212,27 @@
         <v>-3.70498</v>
       </c>
       <c r="F125" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G125">
         <v>2016</v>
       </c>
-    </row>
-    <row r="126" spans="1:7">
+      <c r="H125">
+        <v>4480959.021</v>
+      </c>
+      <c r="I125">
+        <v>439853.0231</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1">
-        <v>3366</v>
+        <v>124</v>
       </c>
       <c r="B126">
         <v>11440337</v>
       </c>
       <c r="C126" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D126">
         <v>40.40773</v>
@@ -3485,21 +4241,27 @@
         <v>-3.68555</v>
       </c>
       <c r="F126" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G126">
         <v>2016</v>
       </c>
-    </row>
-    <row r="127" spans="1:7">
+      <c r="H126">
+        <v>4473905.687</v>
+      </c>
+      <c r="I126">
+        <v>441870.6698</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1">
-        <v>3373</v>
+        <v>125</v>
       </c>
       <c r="B127">
         <v>11447914</v>
       </c>
       <c r="C127" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D127">
         <v>40.4274</v>
@@ -3508,21 +4270,27 @@
         <v>-3.67808</v>
       </c>
       <c r="F127" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G127">
         <v>2016</v>
       </c>
-    </row>
-    <row r="128" spans="1:7">
+      <c r="H127">
+        <v>4475153.753</v>
+      </c>
+      <c r="I127">
+        <v>442789.9119</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1">
-        <v>3378</v>
+        <v>126</v>
       </c>
       <c r="B128">
         <v>11472913</v>
       </c>
       <c r="C128" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D128">
         <v>40.42922</v>
@@ -3531,21 +4299,27 @@
         <v>-3.68529</v>
       </c>
       <c r="F128" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G128">
         <v>2016</v>
       </c>
-    </row>
-    <row r="129" spans="1:7">
+      <c r="H128">
+        <v>4476104.298</v>
+      </c>
+      <c r="I128">
+        <v>441959.5528</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1">
-        <v>3391</v>
+        <v>127</v>
       </c>
       <c r="B129">
         <v>11519247</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D129">
         <v>40.42097</v>
@@ -3554,21 +4328,27 @@
         <v>-3.69479</v>
       </c>
       <c r="F129" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G129">
         <v>2016</v>
       </c>
-    </row>
-    <row r="130" spans="1:7">
+      <c r="H129">
+        <v>4475014.208</v>
+      </c>
+      <c r="I129">
+        <v>440900.7625</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1">
-        <v>3402</v>
+        <v>128</v>
       </c>
       <c r="B130">
         <v>11559474</v>
       </c>
       <c r="C130" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D130">
         <v>40.39447</v>
@@ -3577,21 +4357,27 @@
         <v>-3.6945</v>
       </c>
       <c r="F130" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G130">
         <v>2016</v>
       </c>
-    </row>
-    <row r="131" spans="1:7">
+      <c r="H130">
+        <v>4472027.934</v>
+      </c>
+      <c r="I130">
+        <v>441453.464</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1">
-        <v>3444</v>
+        <v>129</v>
       </c>
       <c r="B131">
         <v>11652752</v>
       </c>
       <c r="C131" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D131">
         <v>40.42446</v>
@@ -3600,21 +4386,27 @@
         <v>-3.68709</v>
       </c>
       <c r="F131" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G131">
         <v>2016</v>
       </c>
-    </row>
-    <row r="132" spans="1:7">
+      <c r="H131">
+        <v>4475110.43</v>
+      </c>
+      <c r="I131">
+        <v>441820.8979</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1">
-        <v>3450</v>
+        <v>130</v>
       </c>
       <c r="B132">
         <v>11664645</v>
       </c>
       <c r="C132" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D132">
         <v>40.43109</v>
@@ -3623,21 +4415,27 @@
         <v>-3.71593</v>
       </c>
       <c r="F132" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G132">
         <v>2016</v>
       </c>
-    </row>
-    <row r="133" spans="1:7">
+      <c r="H132">
+        <v>4476283.322</v>
+      </c>
+      <c r="I132">
+        <v>439389.8945</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1">
-        <v>3459</v>
+        <v>131</v>
       </c>
       <c r="B133">
         <v>11687339</v>
       </c>
       <c r="C133" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D133">
         <v>40.43574</v>
@@ -3646,21 +4444,27 @@
         <v>-3.71132</v>
       </c>
       <c r="F133" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G133">
         <v>2016</v>
       </c>
-    </row>
-    <row r="134" spans="1:7">
+      <c r="H133">
+        <v>4476283.322</v>
+      </c>
+      <c r="I133">
+        <v>439389.8945</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1">
-        <v>3510</v>
+        <v>132</v>
       </c>
       <c r="B134">
         <v>11808605</v>
       </c>
       <c r="C134" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D134">
         <v>40.4062</v>
@@ -3669,21 +4473,27 @@
         <v>-3.70172</v>
       </c>
       <c r="F134" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G134">
         <v>2016</v>
       </c>
-    </row>
-    <row r="135" spans="1:7">
+      <c r="H134">
+        <v>4473417.211</v>
+      </c>
+      <c r="I134">
+        <v>440397.1764</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1">
-        <v>3521</v>
+        <v>133</v>
       </c>
       <c r="B135">
         <v>11841085</v>
       </c>
       <c r="C135" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D135">
         <v>40.40623</v>
@@ -3692,21 +4502,27 @@
         <v>-3.69299</v>
       </c>
       <c r="F135" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G135">
         <v>2016</v>
       </c>
-    </row>
-    <row r="136" spans="1:7">
+      <c r="H135">
+        <v>4472774.286</v>
+      </c>
+      <c r="I135">
+        <v>441057.6445</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1">
-        <v>3523</v>
+        <v>134</v>
       </c>
       <c r="B136">
         <v>11843115</v>
       </c>
       <c r="C136" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D136">
         <v>40.41914</v>
@@ -3715,21 +4531,27 @@
         <v>-3.708</v>
       </c>
       <c r="F136" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G136">
         <v>2016</v>
       </c>
-    </row>
-    <row r="137" spans="1:7">
+      <c r="H136">
+        <v>4474314.564</v>
+      </c>
+      <c r="I136">
+        <v>440226.8442</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1">
-        <v>3535</v>
+        <v>135</v>
       </c>
       <c r="B137">
         <v>11883878</v>
       </c>
       <c r="C137" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D137">
         <v>40.40984</v>
@@ -3738,21 +4560,27 @@
         <v>-3.7083</v>
       </c>
       <c r="F137" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G137">
         <v>2016</v>
       </c>
-    </row>
-    <row r="138" spans="1:7">
+      <c r="H137">
+        <v>4473417.211</v>
+      </c>
+      <c r="I137">
+        <v>440397.1764</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1">
-        <v>3536</v>
+        <v>136</v>
       </c>
       <c r="B138">
         <v>11884950</v>
       </c>
       <c r="C138" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D138">
         <v>40.43077</v>
@@ -3761,21 +4589,27 @@
         <v>-3.72011</v>
       </c>
       <c r="F138" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G138">
         <v>2016</v>
       </c>
-    </row>
-    <row r="139" spans="1:7">
+      <c r="H138">
+        <v>4475533.294</v>
+      </c>
+      <c r="I138">
+        <v>439109.0847</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1">
-        <v>3538</v>
+        <v>137</v>
       </c>
       <c r="B139">
         <v>11887620</v>
       </c>
       <c r="C139" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D139">
         <v>40.39526</v>
@@ -3784,21 +4618,27 @@
         <v>-3.74744</v>
       </c>
       <c r="F139" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G139">
         <v>2016</v>
       </c>
-    </row>
-    <row r="140" spans="1:7">
+      <c r="H139">
+        <v>4471531.816</v>
+      </c>
+      <c r="I139">
+        <v>435779.5365</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1">
-        <v>3558</v>
+        <v>138</v>
       </c>
       <c r="B140">
         <v>11975069</v>
       </c>
       <c r="C140" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D140">
         <v>40.39943</v>
@@ -3807,21 +4647,27 @@
         <v>-3.66965</v>
       </c>
       <c r="F140" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G140">
         <v>2016</v>
       </c>
-    </row>
-    <row r="141" spans="1:7">
+      <c r="H140">
+        <v>4472494.747</v>
+      </c>
+      <c r="I140">
+        <v>443062.2345</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1">
-        <v>3581</v>
+        <v>139</v>
       </c>
       <c r="B141">
         <v>12067598</v>
       </c>
       <c r="C141" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D141">
         <v>40.41301</v>
@@ -3830,21 +4676,27 @@
         <v>-3.70427</v>
       </c>
       <c r="F141" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G141">
         <v>2016</v>
       </c>
-    </row>
-    <row r="142" spans="1:7">
+      <c r="H141">
+        <v>4473417.211</v>
+      </c>
+      <c r="I141">
+        <v>440397.1764</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1">
-        <v>3588</v>
+        <v>140</v>
       </c>
       <c r="B142">
         <v>12091273</v>
       </c>
       <c r="C142" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D142">
         <v>40.39838</v>
@@ -3853,21 +4705,27 @@
         <v>-3.6537</v>
       </c>
       <c r="F142" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G142">
         <v>2016</v>
       </c>
-    </row>
-    <row r="143" spans="1:7">
+      <c r="H142">
+        <v>4472306.995</v>
+      </c>
+      <c r="I142">
+        <v>444116.7652</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1">
-        <v>3589</v>
+        <v>141</v>
       </c>
       <c r="B143">
         <v>12091591</v>
       </c>
       <c r="C143" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D143">
         <v>40.41418</v>
@@ -3876,21 +4734,27 @@
         <v>-3.70439</v>
       </c>
       <c r="F143" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G143">
         <v>2016</v>
       </c>
-    </row>
-    <row r="144" spans="1:7">
+      <c r="H143">
+        <v>4474314.564</v>
+      </c>
+      <c r="I143">
+        <v>440226.8442</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1">
-        <v>3608</v>
+        <v>142</v>
       </c>
       <c r="B144">
         <v>12178970</v>
       </c>
       <c r="C144" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D144">
         <v>40.41977</v>
@@ -3899,21 +4763,27 @@
         <v>-3.70056</v>
       </c>
       <c r="F144" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G144">
         <v>2016</v>
       </c>
-    </row>
-    <row r="145" spans="1:7">
+      <c r="H144">
+        <v>4474314.564</v>
+      </c>
+      <c r="I144">
+        <v>440226.8442</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1">
-        <v>3617</v>
+        <v>143</v>
       </c>
       <c r="B145">
         <v>12208697</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D145">
         <v>40.42629</v>
@@ -3922,21 +4792,27 @@
         <v>-3.70031</v>
       </c>
       <c r="F145" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G145">
         <v>2016</v>
       </c>
-    </row>
-    <row r="146" spans="1:7">
+      <c r="H145">
+        <v>4475014.208</v>
+      </c>
+      <c r="I145">
+        <v>440900.7625</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1">
-        <v>3621</v>
+        <v>144</v>
       </c>
       <c r="B146">
         <v>12245167</v>
       </c>
       <c r="C146" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D146">
         <v>40.39691</v>
@@ -3945,21 +4821,27 @@
         <v>-3.72081</v>
       </c>
       <c r="F146" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G146">
         <v>2016</v>
       </c>
-    </row>
-    <row r="147" spans="1:7">
+      <c r="H146">
+        <v>4472031.606</v>
+      </c>
+      <c r="I146">
+        <v>438190.5428</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1">
-        <v>3639</v>
+        <v>145</v>
       </c>
       <c r="B147">
         <v>12303494</v>
       </c>
       <c r="C147" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D147">
         <v>40.42957</v>
@@ -3968,21 +4850,27 @@
         <v>-3.68593</v>
       </c>
       <c r="F147" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G147">
         <v>2016</v>
       </c>
-    </row>
-    <row r="148" spans="1:7">
+      <c r="H147">
+        <v>4476104.298</v>
+      </c>
+      <c r="I147">
+        <v>441959.5528</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1">
-        <v>3643</v>
+        <v>146</v>
       </c>
       <c r="B148">
         <v>12309658</v>
       </c>
       <c r="C148" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D148">
         <v>40.40689</v>
@@ -3991,21 +4879,27 @@
         <v>-3.707</v>
       </c>
       <c r="F148" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G148">
         <v>2016</v>
       </c>
-    </row>
-    <row r="149" spans="1:7">
+      <c r="H148">
+        <v>4473417.211</v>
+      </c>
+      <c r="I148">
+        <v>440397.1764</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1">
-        <v>3644</v>
+        <v>147</v>
       </c>
       <c r="B149">
         <v>12309736</v>
       </c>
       <c r="C149" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D149">
         <v>40.40788</v>
@@ -4014,21 +4908,27 @@
         <v>-3.69846</v>
       </c>
       <c r="F149" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G149">
         <v>2016</v>
       </c>
-    </row>
-    <row r="150" spans="1:7">
+      <c r="H149">
+        <v>4473417.211</v>
+      </c>
+      <c r="I149">
+        <v>440397.1764</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1">
-        <v>3652</v>
+        <v>148</v>
       </c>
       <c r="B150">
         <v>12339653</v>
       </c>
       <c r="C150" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D150">
         <v>40.43461</v>
@@ -4037,21 +4937,27 @@
         <v>-3.71581</v>
       </c>
       <c r="F150" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G150">
         <v>2016</v>
       </c>
-    </row>
-    <row r="151" spans="1:7">
+      <c r="H150">
+        <v>4476283.322</v>
+      </c>
+      <c r="I150">
+        <v>439389.8945</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1">
-        <v>3660</v>
+        <v>149</v>
       </c>
       <c r="B151">
         <v>12357602</v>
       </c>
       <c r="C151" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D151">
         <v>40.40664</v>
@@ -4060,21 +4966,27 @@
         <v>-3.6761</v>
       </c>
       <c r="F151" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G151">
         <v>2016</v>
       </c>
-    </row>
-    <row r="152" spans="1:7">
+      <c r="H151">
+        <v>4472859.079</v>
+      </c>
+      <c r="I151">
+        <v>442407.5013</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1">
-        <v>3663</v>
+        <v>150</v>
       </c>
       <c r="B152">
         <v>12365700</v>
       </c>
       <c r="C152" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D152">
         <v>40.41194</v>
@@ -4083,21 +4995,27 @@
         <v>-3.69686</v>
       </c>
       <c r="F152" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G152">
         <v>2016</v>
       </c>
-    </row>
-    <row r="153" spans="1:7">
+      <c r="H152">
+        <v>4474035.577</v>
+      </c>
+      <c r="I152">
+        <v>440880.1521</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1">
-        <v>3677</v>
+        <v>151</v>
       </c>
       <c r="B153">
         <v>12436970</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D153">
         <v>40.42425</v>
@@ -4106,21 +5024,27 @@
         <v>-3.70029</v>
       </c>
       <c r="F153" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G153">
         <v>2016</v>
       </c>
-    </row>
-    <row r="154" spans="1:7">
+      <c r="H153">
+        <v>4475014.208</v>
+      </c>
+      <c r="I153">
+        <v>440900.7625</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1">
-        <v>3708</v>
+        <v>152</v>
       </c>
       <c r="B154">
         <v>12560440</v>
       </c>
       <c r="C154" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D154">
         <v>40.42931</v>
@@ -4129,21 +5053,27 @@
         <v>-3.66671</v>
       </c>
       <c r="F154" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G154">
         <v>2016</v>
       </c>
-    </row>
-    <row r="155" spans="1:7">
+      <c r="H154">
+        <v>4476402.061</v>
+      </c>
+      <c r="I154">
+        <v>443463.5845</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1">
-        <v>3717</v>
+        <v>153</v>
       </c>
       <c r="B155">
         <v>12577119</v>
       </c>
       <c r="C155" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D155">
         <v>40.42506</v>
@@ -4152,21 +5082,27 @@
         <v>-3.70203</v>
       </c>
       <c r="F155" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G155">
         <v>2016</v>
       </c>
-    </row>
-    <row r="156" spans="1:7">
+      <c r="H155">
+        <v>4475244.247</v>
+      </c>
+      <c r="I155">
+        <v>440020.8477</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1">
-        <v>3721</v>
+        <v>154</v>
       </c>
       <c r="B156">
         <v>12600216</v>
       </c>
       <c r="C156" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D156">
         <v>40.40343</v>
@@ -4175,21 +5111,27 @@
         <v>-3.69321</v>
       </c>
       <c r="F156" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G156">
         <v>2016</v>
       </c>
-    </row>
-    <row r="157" spans="1:7">
+      <c r="H156">
+        <v>4472774.286</v>
+      </c>
+      <c r="I156">
+        <v>441057.6445</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1">
-        <v>3729</v>
+        <v>155</v>
       </c>
       <c r="B157">
         <v>12621363</v>
       </c>
       <c r="C157" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D157">
         <v>40.44961</v>
@@ -4198,21 +5140,27 @@
         <v>-3.70036</v>
       </c>
       <c r="F157" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G157">
         <v>2016</v>
       </c>
-    </row>
-    <row r="158" spans="1:7">
+      <c r="H157">
+        <v>4478108.124</v>
+      </c>
+      <c r="I157">
+        <v>440893.969</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1">
-        <v>3735</v>
+        <v>156</v>
       </c>
       <c r="B158">
         <v>12643066</v>
       </c>
       <c r="C158" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D158">
         <v>40.4315</v>
@@ -4221,21 +5169,27 @@
         <v>-3.71305</v>
       </c>
       <c r="F158" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G158">
         <v>2016</v>
       </c>
-    </row>
-    <row r="159" spans="1:7">
+      <c r="H158">
+        <v>4476283.322</v>
+      </c>
+      <c r="I158">
+        <v>439389.8945</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1">
-        <v>3747</v>
+        <v>157</v>
       </c>
       <c r="B159">
         <v>12697537</v>
       </c>
       <c r="C159" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D159">
         <v>40.41849</v>
@@ -4244,21 +5198,27 @@
         <v>-3.70455</v>
       </c>
       <c r="F159" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G159">
         <v>2016</v>
       </c>
-    </row>
-    <row r="160" spans="1:7">
+      <c r="H159">
+        <v>4474314.564</v>
+      </c>
+      <c r="I159">
+        <v>440226.8442</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1">
-        <v>3759</v>
+        <v>158</v>
       </c>
       <c r="B160">
         <v>12751825</v>
       </c>
       <c r="C160" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D160">
         <v>40.42321</v>
@@ -4267,21 +5227,27 @@
         <v>-3.70266</v>
       </c>
       <c r="F160" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G160">
         <v>2016</v>
       </c>
-    </row>
-    <row r="161" spans="1:7">
+      <c r="H160">
+        <v>4475244.247</v>
+      </c>
+      <c r="I160">
+        <v>440020.8477</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1">
-        <v>3765</v>
+        <v>159</v>
       </c>
       <c r="B161">
         <v>12774424</v>
       </c>
       <c r="C161" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D161">
         <v>40.41591</v>
@@ -4290,21 +5256,27 @@
         <v>-3.67666</v>
       </c>
       <c r="F161" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G161">
         <v>2016</v>
       </c>
-    </row>
-    <row r="162" spans="1:7">
+      <c r="H161">
+        <v>4474469.277</v>
+      </c>
+      <c r="I161">
+        <v>442791.7959</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1">
-        <v>3778</v>
+        <v>160</v>
       </c>
       <c r="B162">
         <v>12808440</v>
       </c>
       <c r="C162" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D162">
         <v>40.4261</v>
@@ -4313,21 +5285,27 @@
         <v>-3.6776</v>
       </c>
       <c r="F162" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G162">
         <v>2016</v>
       </c>
-    </row>
-    <row r="163" spans="1:7">
+      <c r="H162">
+        <v>4475153.753</v>
+      </c>
+      <c r="I162">
+        <v>442789.9119</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1">
-        <v>3782</v>
+        <v>161</v>
       </c>
       <c r="B163">
         <v>12823142</v>
       </c>
       <c r="C163" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D163">
         <v>40.41027</v>
@@ -4336,21 +5314,27 @@
         <v>-3.70197</v>
       </c>
       <c r="F163" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G163">
         <v>2016</v>
       </c>
-    </row>
-    <row r="164" spans="1:7">
+      <c r="H163">
+        <v>4473417.211</v>
+      </c>
+      <c r="I163">
+        <v>440397.1764</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1">
-        <v>3790</v>
+        <v>162</v>
       </c>
       <c r="B164">
         <v>12846037</v>
       </c>
       <c r="C164" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D164">
         <v>40.43926</v>
@@ -4359,21 +5343,27 @@
         <v>-3.69513</v>
       </c>
       <c r="F164" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G164">
         <v>2016</v>
       </c>
-    </row>
-    <row r="165" spans="1:7">
+      <c r="H164">
+        <v>4477096.745</v>
+      </c>
+      <c r="I164">
+        <v>440826.6665</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1">
-        <v>3814</v>
+        <v>163</v>
       </c>
       <c r="B165">
         <v>12899328</v>
       </c>
       <c r="C165" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D165">
         <v>40.42511</v>
@@ -4382,21 +5372,27 @@
         <v>-3.70574</v>
       </c>
       <c r="F165" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G165">
         <v>2016</v>
       </c>
-    </row>
-    <row r="166" spans="1:7">
+      <c r="H165">
+        <v>4475244.247</v>
+      </c>
+      <c r="I165">
+        <v>440020.8477</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1">
-        <v>3816</v>
+        <v>164</v>
       </c>
       <c r="B166">
         <v>12899623</v>
       </c>
       <c r="C166" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D166">
         <v>40.43555</v>
@@ -4405,21 +5401,27 @@
         <v>-3.68232</v>
       </c>
       <c r="F166" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G166">
         <v>2016</v>
       </c>
-    </row>
-    <row r="167" spans="1:7">
+      <c r="H166">
+        <v>4476104.298</v>
+      </c>
+      <c r="I166">
+        <v>441959.5528</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1">
-        <v>3840</v>
+        <v>165</v>
       </c>
       <c r="B167">
         <v>12999503</v>
       </c>
       <c r="C167" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D167">
         <v>40.40688</v>
@@ -4428,21 +5430,27 @@
         <v>-3.70411</v>
       </c>
       <c r="F167" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G167">
         <v>2016</v>
       </c>
-    </row>
-    <row r="168" spans="1:7">
+      <c r="H167">
+        <v>4473417.211</v>
+      </c>
+      <c r="I167">
+        <v>440397.1764</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1">
-        <v>3852</v>
+        <v>166</v>
       </c>
       <c r="B168">
         <v>13025008</v>
       </c>
       <c r="C168" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D168">
         <v>40.42149</v>
@@ -4451,21 +5459,27 @@
         <v>-3.68346</v>
       </c>
       <c r="F168" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G168">
         <v>2016</v>
       </c>
-    </row>
-    <row r="169" spans="1:7">
+      <c r="H168">
+        <v>4475110.43</v>
+      </c>
+      <c r="I168">
+        <v>441820.8979</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1">
-        <v>3868</v>
+        <v>167</v>
       </c>
       <c r="B169">
         <v>13071195</v>
       </c>
       <c r="C169" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D169">
         <v>40.41873</v>
@@ -4474,21 +5488,27 @@
         <v>-3.67396</v>
       </c>
       <c r="F169" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G169">
         <v>2016</v>
       </c>
-    </row>
-    <row r="170" spans="1:7">
+      <c r="H169">
+        <v>4474469.277</v>
+      </c>
+      <c r="I169">
+        <v>442791.7959</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1">
-        <v>3887</v>
+        <v>168</v>
       </c>
       <c r="B170">
         <v>13134531</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D170">
         <v>40.42081</v>
@@ -4497,21 +5517,27 @@
         <v>-3.69731</v>
       </c>
       <c r="F170" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G170">
         <v>2016</v>
       </c>
-    </row>
-    <row r="171" spans="1:7">
+      <c r="H170">
+        <v>4475014.208</v>
+      </c>
+      <c r="I170">
+        <v>440900.7625</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1">
-        <v>3892</v>
+        <v>169</v>
       </c>
       <c r="B171">
         <v>13143126</v>
       </c>
       <c r="C171" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D171">
         <v>40.39915</v>
@@ -4520,21 +5546,27 @@
         <v>-3.69288</v>
       </c>
       <c r="F171" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G171">
         <v>2016</v>
       </c>
-    </row>
-    <row r="172" spans="1:7">
+      <c r="H171">
+        <v>4472027.934</v>
+      </c>
+      <c r="I171">
+        <v>441453.464</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1">
-        <v>3901</v>
+        <v>170</v>
       </c>
       <c r="B172">
         <v>13163878</v>
       </c>
       <c r="C172" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D172">
         <v>40.43143</v>
@@ -4543,21 +5575,27 @@
         <v>-3.67422</v>
       </c>
       <c r="F172" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G172">
         <v>2016</v>
       </c>
-    </row>
-    <row r="173" spans="1:7">
+      <c r="H172">
+        <v>4475927.641</v>
+      </c>
+      <c r="I172">
+        <v>442676.6687</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1">
-        <v>3914</v>
+        <v>171</v>
       </c>
       <c r="B173">
         <v>13197420</v>
       </c>
       <c r="C173" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D173">
         <v>40.40803</v>
@@ -4566,21 +5604,27 @@
         <v>-3.71453</v>
       </c>
       <c r="F173" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G173">
         <v>2016</v>
       </c>
-    </row>
-    <row r="174" spans="1:7">
+      <c r="H173">
+        <v>4474110.875</v>
+      </c>
+      <c r="I173">
+        <v>439417.7914</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1">
-        <v>3923</v>
+        <v>172</v>
       </c>
       <c r="B174">
         <v>13232503</v>
       </c>
       <c r="C174" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D174">
         <v>40.41746</v>
@@ -4589,21 +5633,27 @@
         <v>-3.70736</v>
       </c>
       <c r="F174" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G174">
         <v>2016</v>
       </c>
-    </row>
-    <row r="175" spans="1:7">
+      <c r="H174">
+        <v>4474314.564</v>
+      </c>
+      <c r="I174">
+        <v>440226.8442</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1">
-        <v>3927</v>
+        <v>173</v>
       </c>
       <c r="B175">
         <v>13235163</v>
       </c>
       <c r="C175" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D175">
         <v>40.4566</v>
@@ -4612,21 +5662,27 @@
         <v>-3.7032</v>
       </c>
       <c r="F175" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G175">
         <v>2016</v>
       </c>
-    </row>
-    <row r="176" spans="1:7">
+      <c r="H175">
+        <v>4479011.421</v>
+      </c>
+      <c r="I175">
+        <v>440230.3974</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1">
-        <v>3928</v>
+        <v>174</v>
       </c>
       <c r="B176">
         <v>13238432</v>
       </c>
       <c r="C176" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D176">
         <v>40.40048</v>
@@ -4635,21 +5691,27 @@
         <v>-3.71473</v>
       </c>
       <c r="F176" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G176">
         <v>2016</v>
       </c>
-    </row>
-    <row r="177" spans="1:7">
+      <c r="H176">
+        <v>4473089.616</v>
+      </c>
+      <c r="I176">
+        <v>439045.6199</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1">
-        <v>3938</v>
+        <v>175</v>
       </c>
       <c r="B177">
         <v>13274176</v>
       </c>
       <c r="C177" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D177">
         <v>40.43719</v>
@@ -4658,21 +5720,27 @@
         <v>-3.71097</v>
       </c>
       <c r="F177" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G177">
         <v>2016</v>
       </c>
-    </row>
-    <row r="178" spans="1:7">
+      <c r="H177">
+        <v>4476214.595</v>
+      </c>
+      <c r="I177">
+        <v>439947.5584</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1">
-        <v>3944</v>
+        <v>176</v>
       </c>
       <c r="B178">
         <v>13289455</v>
       </c>
       <c r="C178" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D178">
         <v>40.44996</v>
@@ -4681,21 +5749,27 @@
         <v>-3.71032</v>
       </c>
       <c r="F178" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G178">
         <v>2016</v>
       </c>
-    </row>
-    <row r="179" spans="1:7">
+      <c r="H178">
+        <v>4478627.02</v>
+      </c>
+      <c r="I178">
+        <v>437391.5065</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1">
-        <v>3957</v>
+        <v>177</v>
       </c>
       <c r="B179">
         <v>13319516</v>
       </c>
       <c r="C179" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D179">
         <v>40.47082</v>
@@ -4704,21 +5778,27 @@
         <v>-3.69612</v>
       </c>
       <c r="F179" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G179">
         <v>2016</v>
       </c>
-    </row>
-    <row r="180" spans="1:7">
+      <c r="H179">
+        <v>4480229.372</v>
+      </c>
+      <c r="I179">
+        <v>441142.6001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1">
-        <v>3973</v>
+        <v>178</v>
       </c>
       <c r="B180">
         <v>13342949</v>
       </c>
       <c r="C180" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D180">
         <v>40.45062</v>
@@ -4727,21 +5807,27 @@
         <v>-3.69993</v>
       </c>
       <c r="F180" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G180">
         <v>2016</v>
       </c>
-    </row>
-    <row r="181" spans="1:7">
+      <c r="H180">
+        <v>4478108.124</v>
+      </c>
+      <c r="I180">
+        <v>440893.969</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1">
-        <v>3975</v>
+        <v>179</v>
       </c>
       <c r="B181">
         <v>13344391</v>
       </c>
       <c r="C181" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D181">
         <v>40.4017</v>
@@ -4750,21 +5836,27 @@
         <v>-3.69196</v>
       </c>
       <c r="F181" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G181">
         <v>2016</v>
       </c>
-    </row>
-    <row r="182" spans="1:7">
+      <c r="H181">
+        <v>4472774.286</v>
+      </c>
+      <c r="I181">
+        <v>441057.6445</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1">
-        <v>3984</v>
+        <v>180</v>
       </c>
       <c r="B182">
         <v>13367445</v>
       </c>
       <c r="C182" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D182">
         <v>40.39243</v>
@@ -4773,21 +5865,27 @@
         <v>-3.72166</v>
       </c>
       <c r="F182" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G182">
         <v>2016</v>
       </c>
-    </row>
-    <row r="183" spans="1:7">
+      <c r="H182">
+        <v>4471320.131</v>
+      </c>
+      <c r="I182">
+        <v>438741.1131</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1">
-        <v>4004</v>
+        <v>181</v>
       </c>
       <c r="B183">
         <v>13390324</v>
       </c>
       <c r="C183" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D183">
         <v>40.38596</v>
@@ -4796,21 +5894,27 @@
         <v>-3.64299</v>
       </c>
       <c r="F183" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G183">
         <v>2016</v>
       </c>
-    </row>
-    <row r="184" spans="1:7">
+      <c r="H183">
+        <v>4470708.716</v>
+      </c>
+      <c r="I183">
+        <v>445907.486</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1">
-        <v>4018</v>
+        <v>182</v>
       </c>
       <c r="B184">
         <v>13415329</v>
       </c>
       <c r="C184" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D184">
         <v>40.43714</v>
@@ -4819,21 +5923,27 @@
         <v>-3.67229</v>
       </c>
       <c r="F184" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G184">
         <v>2016</v>
       </c>
-    </row>
-    <row r="185" spans="1:7">
+      <c r="H184">
+        <v>4476402.061</v>
+      </c>
+      <c r="I184">
+        <v>443463.5845</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1">
-        <v>4039</v>
+        <v>183</v>
       </c>
       <c r="B185">
         <v>13453916</v>
       </c>
       <c r="C185" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D185">
         <v>40.43164</v>
@@ -4842,21 +5952,27 @@
         <v>-3.70364</v>
       </c>
       <c r="F185" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G185">
         <v>2016</v>
       </c>
-    </row>
-    <row r="186" spans="1:7">
+      <c r="H185">
+        <v>4476037.29</v>
+      </c>
+      <c r="I185">
+        <v>440530.8517</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1">
-        <v>4045</v>
+        <v>184</v>
       </c>
       <c r="B186">
         <v>13469435</v>
       </c>
       <c r="C186" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D186">
         <v>40.4557</v>
@@ -4865,21 +5981,27 @@
         <v>-3.70296</v>
       </c>
       <c r="F186" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G186">
         <v>2016</v>
       </c>
-    </row>
-    <row r="187" spans="1:7">
+      <c r="H186">
+        <v>4479011.421</v>
+      </c>
+      <c r="I186">
+        <v>440230.3974</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1">
-        <v>4054</v>
+        <v>185</v>
       </c>
       <c r="B187">
         <v>13499497</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D187">
         <v>40.42365</v>
@@ -4888,21 +6010,27 @@
         <v>-3.69653</v>
       </c>
       <c r="F187" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G187">
         <v>2016</v>
       </c>
-    </row>
-    <row r="188" spans="1:7">
+      <c r="H187">
+        <v>4475014.208</v>
+      </c>
+      <c r="I187">
+        <v>440900.7625</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1">
-        <v>4070</v>
+        <v>186</v>
       </c>
       <c r="B188">
         <v>13523658</v>
       </c>
       <c r="C188" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D188">
         <v>40.43738</v>
@@ -4911,21 +6039,27 @@
         <v>-3.67509</v>
       </c>
       <c r="F188" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G188">
         <v>2016</v>
       </c>
-    </row>
-    <row r="189" spans="1:7">
+      <c r="H188">
+        <v>4476402.061</v>
+      </c>
+      <c r="I188">
+        <v>443463.5845</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1">
-        <v>4086</v>
+        <v>187</v>
       </c>
       <c r="B189">
         <v>13542732</v>
       </c>
       <c r="C189" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D189">
         <v>40.3892</v>
@@ -4934,21 +6068,27 @@
         <v>-3.68802</v>
       </c>
       <c r="F189" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G189">
         <v>2016</v>
       </c>
-    </row>
-    <row r="190" spans="1:7">
+      <c r="H189">
+        <v>4471151.447</v>
+      </c>
+      <c r="I189">
+        <v>441682.9396</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1">
-        <v>4094</v>
+        <v>188</v>
       </c>
       <c r="B190">
         <v>13555382</v>
       </c>
       <c r="C190" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D190">
         <v>40.40854</v>
@@ -4957,21 +6097,27 @@
         <v>-3.69983</v>
       </c>
       <c r="F190" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G190">
         <v>2016</v>
       </c>
-    </row>
-    <row r="191" spans="1:7">
+      <c r="H190">
+        <v>4473417.211</v>
+      </c>
+      <c r="I190">
+        <v>440397.1764</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1">
-        <v>4109</v>
+        <v>189</v>
       </c>
       <c r="B191">
         <v>13580984</v>
       </c>
       <c r="C191" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D191">
         <v>40.43084</v>
@@ -4980,21 +6126,27 @@
         <v>-3.71895</v>
       </c>
       <c r="F191" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G191">
         <v>2016</v>
       </c>
-    </row>
-    <row r="192" spans="1:7">
+      <c r="H191">
+        <v>4475533.294</v>
+      </c>
+      <c r="I191">
+        <v>439109.0847</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1">
-        <v>4124</v>
+        <v>190</v>
       </c>
       <c r="B192">
         <v>13601485</v>
       </c>
       <c r="C192" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D192">
         <v>40.38338</v>
@@ -5003,21 +6155,27 @@
         <v>-3.7036</v>
       </c>
       <c r="F192" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G192">
         <v>2016</v>
       </c>
-    </row>
-    <row r="193" spans="1:7">
+      <c r="H192">
+        <v>4470576.407</v>
+      </c>
+      <c r="I192">
+        <v>440645.9665</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1">
-        <v>4134</v>
+        <v>191</v>
       </c>
       <c r="B193">
         <v>13614390</v>
       </c>
       <c r="C193" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D193">
         <v>40.39464</v>
@@ -5026,21 +6184,27 @@
         <v>-3.76785</v>
       </c>
       <c r="F193" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G193">
         <v>2016</v>
       </c>
-    </row>
-    <row r="194" spans="1:7">
+      <c r="H193">
+        <v>4471531.816</v>
+      </c>
+      <c r="I193">
+        <v>435779.5365</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1">
-        <v>4135</v>
+        <v>192</v>
       </c>
       <c r="B194">
         <v>13614692</v>
       </c>
       <c r="C194" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D194">
         <v>40.43833</v>
@@ -5049,21 +6213,27 @@
         <v>-3.70949</v>
       </c>
       <c r="F194" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G194">
         <v>2016</v>
       </c>
-    </row>
-    <row r="195" spans="1:7">
+      <c r="H194">
+        <v>4476214.595</v>
+      </c>
+      <c r="I194">
+        <v>439947.5584</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1">
-        <v>4139</v>
+        <v>193</v>
       </c>
       <c r="B195">
         <v>13621444</v>
       </c>
       <c r="C195" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D195">
         <v>40.43498</v>
@@ -5072,21 +6242,27 @@
         <v>-3.61825</v>
       </c>
       <c r="F195" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G195">
         <v>2016</v>
       </c>
-    </row>
-    <row r="196" spans="1:7">
+      <c r="H195">
+        <v>4476263.737</v>
+      </c>
+      <c r="I195">
+        <v>446981.6721</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1">
-        <v>4143</v>
+        <v>194</v>
       </c>
       <c r="B196">
         <v>13627260</v>
       </c>
       <c r="C196" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D196">
         <v>40.40362</v>
@@ -5095,21 +6271,27 @@
         <v>-3.71814</v>
       </c>
       <c r="F196" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G196">
         <v>2016</v>
       </c>
-    </row>
-    <row r="197" spans="1:7">
+      <c r="H196">
+        <v>4473089.616</v>
+      </c>
+      <c r="I196">
+        <v>439045.6199</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1">
-        <v>4148</v>
+        <v>195</v>
       </c>
       <c r="B197">
         <v>13634220</v>
       </c>
       <c r="C197" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D197">
         <v>40.43243</v>
@@ -5118,21 +6300,27 @@
         <v>-3.70207</v>
       </c>
       <c r="F197" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G197">
         <v>2016</v>
       </c>
-    </row>
-    <row r="198" spans="1:7">
+      <c r="H197">
+        <v>4476037.29</v>
+      </c>
+      <c r="I197">
+        <v>440530.8517</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1">
-        <v>4167</v>
+        <v>196</v>
       </c>
       <c r="B198">
         <v>13653401</v>
       </c>
       <c r="C198" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D198">
         <v>40.4002</v>
@@ -5141,21 +6329,27 @@
         <v>-3.70072</v>
       </c>
       <c r="F198" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G198">
         <v>2016</v>
       </c>
-    </row>
-    <row r="199" spans="1:7">
+      <c r="H198">
+        <v>4472513.434</v>
+      </c>
+      <c r="I198">
+        <v>439982.8536</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1">
-        <v>4179</v>
+        <v>197</v>
       </c>
       <c r="B199">
         <v>13665991</v>
       </c>
       <c r="C199" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D199">
         <v>40.40816</v>
@@ -5164,21 +6358,27 @@
         <v>-3.70329</v>
       </c>
       <c r="F199" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G199">
         <v>2016</v>
       </c>
-    </row>
-    <row r="200" spans="1:7">
+      <c r="H199">
+        <v>4473417.211</v>
+      </c>
+      <c r="I199">
+        <v>440397.1764</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1">
-        <v>4181</v>
+        <v>198</v>
       </c>
       <c r="B200">
         <v>13669166</v>
       </c>
       <c r="C200" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D200">
         <v>40.41052</v>
@@ -5187,21 +6387,27 @@
         <v>-3.69672</v>
       </c>
       <c r="F200" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G200">
         <v>2016</v>
       </c>
-    </row>
-    <row r="201" spans="1:7">
+      <c r="H200">
+        <v>4473417.211</v>
+      </c>
+      <c r="I200">
+        <v>440397.1764</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1">
-        <v>4186</v>
+        <v>199</v>
       </c>
       <c r="B201">
         <v>13673598</v>
       </c>
       <c r="C201" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D201">
         <v>40.44821</v>
@@ -5210,21 +6416,27 @@
         <v>-3.70086</v>
       </c>
       <c r="F201" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G201">
         <v>2016</v>
       </c>
-    </row>
-    <row r="202" spans="1:7">
+      <c r="H201">
+        <v>4478108.124</v>
+      </c>
+      <c r="I201">
+        <v>440893.969</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="1">
-        <v>4198</v>
+        <v>200</v>
       </c>
       <c r="B202">
         <v>13707474</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D202">
         <v>40.42138</v>
@@ -5233,21 +6445,27 @@
         <v>-3.69727</v>
       </c>
       <c r="F202" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G202">
         <v>2016</v>
       </c>
-    </row>
-    <row r="203" spans="1:7">
+      <c r="H202">
+        <v>4475014.208</v>
+      </c>
+      <c r="I202">
+        <v>440900.7625</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="1">
-        <v>4201</v>
+        <v>201</v>
       </c>
       <c r="B203">
         <v>13710484</v>
       </c>
       <c r="C203" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D203">
         <v>40.46333</v>
@@ -5256,21 +6474,27 @@
         <v>-3.70578</v>
       </c>
       <c r="F203" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G203">
         <v>2016</v>
       </c>
-    </row>
-    <row r="204" spans="1:7">
+      <c r="H203">
+        <v>4479011.421</v>
+      </c>
+      <c r="I203">
+        <v>440230.3974</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" s="1">
-        <v>4210</v>
+        <v>202</v>
       </c>
       <c r="B204">
         <v>13726740</v>
       </c>
       <c r="C204" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D204">
         <v>40.38633</v>
@@ -5279,21 +6503,27 @@
         <v>-3.73198</v>
       </c>
       <c r="F204" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G204">
         <v>2016</v>
       </c>
-    </row>
-    <row r="205" spans="1:7">
+      <c r="H204">
+        <v>4470159.472</v>
+      </c>
+      <c r="I204">
+        <v>437262.2706</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" s="1">
-        <v>4225</v>
+        <v>203</v>
       </c>
       <c r="B205">
         <v>13739130</v>
       </c>
       <c r="C205" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D205">
         <v>40.39521</v>
@@ -5302,21 +6532,27 @@
         <v>-3.66847</v>
       </c>
       <c r="F205" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G205">
         <v>2016</v>
       </c>
-    </row>
-    <row r="206" spans="1:7">
+      <c r="H205">
+        <v>4471262.193</v>
+      </c>
+      <c r="I205">
+        <v>443316.4678</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" s="1">
-        <v>4227</v>
+        <v>204</v>
       </c>
       <c r="B206">
         <v>13740681</v>
       </c>
       <c r="C206" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D206">
         <v>40.45556</v>
@@ -5325,21 +6561,27 @@
         <v>-3.69671</v>
       </c>
       <c r="F206" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G206">
         <v>2016</v>
       </c>
-    </row>
-    <row r="207" spans="1:7">
+      <c r="H206">
+        <v>4478108.124</v>
+      </c>
+      <c r="I206">
+        <v>440893.969</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" s="1">
-        <v>4230</v>
+        <v>205</v>
       </c>
       <c r="B207">
         <v>13744939</v>
       </c>
       <c r="C207" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D207">
         <v>40.41227</v>
@@ -5348,21 +6590,27 @@
         <v>-3.6948</v>
       </c>
       <c r="F207" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G207">
         <v>2016</v>
       </c>
-    </row>
-    <row r="208" spans="1:7">
+      <c r="H207">
+        <v>4474035.577</v>
+      </c>
+      <c r="I207">
+        <v>440880.1521</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" s="1">
-        <v>4232</v>
+        <v>206</v>
       </c>
       <c r="B208">
         <v>13745016</v>
       </c>
       <c r="C208" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D208">
         <v>40.41189</v>
@@ -5371,21 +6619,27 @@
         <v>-3.7196</v>
       </c>
       <c r="F208" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G208">
         <v>2016</v>
       </c>
-    </row>
-    <row r="209" spans="1:7">
+      <c r="H208">
+        <v>4473089.616</v>
+      </c>
+      <c r="I208">
+        <v>439045.6199</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" s="1">
-        <v>4233</v>
+        <v>207</v>
       </c>
       <c r="B209">
         <v>13746879</v>
       </c>
       <c r="C209" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D209">
         <v>40.47974</v>
@@ -5394,21 +6648,27 @@
         <v>-3.66689</v>
       </c>
       <c r="F209" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G209">
         <v>2016</v>
       </c>
-    </row>
-    <row r="210" spans="1:7">
+      <c r="H209">
+        <v>4480877.84</v>
+      </c>
+      <c r="I209">
+        <v>443334.1197</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" s="1">
-        <v>4236</v>
+        <v>208</v>
       </c>
       <c r="B210">
         <v>13750696</v>
       </c>
       <c r="C210" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D210">
         <v>40.42952</v>
@@ -5417,21 +6677,27 @@
         <v>-3.71043</v>
       </c>
       <c r="F210" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G210">
         <v>2016</v>
       </c>
-    </row>
-    <row r="211" spans="1:7">
+      <c r="H210">
+        <v>4475244.247</v>
+      </c>
+      <c r="I210">
+        <v>440020.8477</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" s="1">
-        <v>4252</v>
+        <v>209</v>
       </c>
       <c r="B211">
         <v>13772954</v>
       </c>
       <c r="C211" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D211">
         <v>40.3856</v>
@@ -5440,21 +6706,27 @@
         <v>-3.74555</v>
       </c>
       <c r="F211" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G211">
         <v>2016</v>
       </c>
-    </row>
-    <row r="212" spans="1:7">
+      <c r="H211">
+        <v>4470681.208</v>
+      </c>
+      <c r="I211">
+        <v>436700.7182</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" s="1">
-        <v>4261</v>
+        <v>210</v>
       </c>
       <c r="B212">
         <v>13783643</v>
       </c>
       <c r="C212" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D212">
         <v>40.42124</v>
@@ -5463,21 +6735,27 @@
         <v>-3.70003</v>
       </c>
       <c r="F212" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G212">
         <v>2016</v>
       </c>
-    </row>
-    <row r="213" spans="1:7">
+      <c r="H212">
+        <v>4475014.208</v>
+      </c>
+      <c r="I212">
+        <v>440900.7625</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" s="1">
-        <v>4263</v>
+        <v>211</v>
       </c>
       <c r="B213">
         <v>13790852</v>
       </c>
       <c r="C213" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D213">
         <v>40.41038</v>
@@ -5486,21 +6764,27 @@
         <v>-3.70913</v>
       </c>
       <c r="F213" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G213">
         <v>2016</v>
       </c>
-    </row>
-    <row r="214" spans="1:7">
+      <c r="H213">
+        <v>4474110.875</v>
+      </c>
+      <c r="I213">
+        <v>439417.7914</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" s="1">
-        <v>4265</v>
+        <v>212</v>
       </c>
       <c r="B214">
         <v>13794371</v>
       </c>
       <c r="C214" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D214">
         <v>40.41233</v>
@@ -5509,21 +6793,27 @@
         <v>-3.69547</v>
       </c>
       <c r="F214" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G214">
         <v>2016</v>
       </c>
-    </row>
-    <row r="215" spans="1:7">
+      <c r="H214">
+        <v>4474035.577</v>
+      </c>
+      <c r="I214">
+        <v>440880.1521</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" s="1">
-        <v>4274</v>
+        <v>213</v>
       </c>
       <c r="B215">
         <v>13814652</v>
       </c>
       <c r="C215" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D215">
         <v>40.43527</v>
@@ -5532,21 +6822,27 @@
         <v>-3.68098</v>
       </c>
       <c r="F215" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G215">
         <v>2016</v>
       </c>
-    </row>
-    <row r="216" spans="1:7">
+      <c r="H215">
+        <v>4476104.298</v>
+      </c>
+      <c r="I215">
+        <v>441959.5528</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216" s="1">
-        <v>4281</v>
+        <v>214</v>
       </c>
       <c r="B216">
         <v>13819902</v>
       </c>
       <c r="C216" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D216">
         <v>40.42667</v>
@@ -5555,21 +6851,27 @@
         <v>-3.7045</v>
       </c>
       <c r="F216" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G216">
         <v>2016</v>
       </c>
-    </row>
-    <row r="217" spans="1:7">
+      <c r="H216">
+        <v>4475244.247</v>
+      </c>
+      <c r="I216">
+        <v>440020.8477</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" s="1">
-        <v>4286</v>
+        <v>215</v>
       </c>
       <c r="B217">
         <v>13828104</v>
       </c>
       <c r="C217" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D217">
         <v>40.40339</v>
@@ -5578,21 +6880,27 @@
         <v>-3.70007</v>
       </c>
       <c r="F217" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G217">
         <v>2016</v>
       </c>
-    </row>
-    <row r="218" spans="1:7">
+      <c r="H217">
+        <v>4472774.286</v>
+      </c>
+      <c r="I217">
+        <v>441057.6445</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="A218" s="1">
-        <v>4301</v>
+        <v>216</v>
       </c>
       <c r="B218">
         <v>13854377</v>
       </c>
       <c r="C218" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D218">
         <v>40.45973</v>
@@ -5601,21 +6909,27 @@
         <v>-3.69412</v>
       </c>
       <c r="F218" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G218">
         <v>2016</v>
       </c>
-    </row>
-    <row r="219" spans="1:7">
+      <c r="H218">
+        <v>4479092.74</v>
+      </c>
+      <c r="I218">
+        <v>441146.7116</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="A219" s="1">
-        <v>4304</v>
+        <v>217</v>
       </c>
       <c r="B219">
         <v>13860105</v>
       </c>
       <c r="C219" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D219">
         <v>40.40875</v>
@@ -5624,21 +6938,27 @@
         <v>-3.70433</v>
       </c>
       <c r="F219" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G219">
         <v>2016</v>
       </c>
-    </row>
-    <row r="220" spans="1:7">
+      <c r="H219">
+        <v>4473417.211</v>
+      </c>
+      <c r="I219">
+        <v>440397.1764</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="A220" s="1">
-        <v>4309</v>
+        <v>218</v>
       </c>
       <c r="B220">
         <v>13871896</v>
       </c>
       <c r="C220" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D220">
         <v>40.40905</v>
@@ -5647,21 +6967,27 @@
         <v>-3.69758</v>
       </c>
       <c r="F220" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G220">
         <v>2016</v>
       </c>
-    </row>
-    <row r="221" spans="1:7">
+      <c r="H220">
+        <v>4473417.211</v>
+      </c>
+      <c r="I220">
+        <v>440397.1764</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="A221" s="1">
-        <v>4345</v>
+        <v>219</v>
       </c>
       <c r="B221">
         <v>13934525</v>
       </c>
       <c r="C221" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D221">
         <v>40.42265</v>
@@ -5670,21 +6996,27 @@
         <v>-3.68531</v>
       </c>
       <c r="F221" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G221">
         <v>2016</v>
       </c>
-    </row>
-    <row r="222" spans="1:7">
+      <c r="H221">
+        <v>4475110.43</v>
+      </c>
+      <c r="I221">
+        <v>441820.8979</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="A222" s="1">
-        <v>4359</v>
+        <v>220</v>
       </c>
       <c r="B222">
         <v>13959072</v>
       </c>
       <c r="C222" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D222">
         <v>40.40267</v>
@@ -5693,21 +7025,27 @@
         <v>-3.70176</v>
       </c>
       <c r="F222" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G222">
         <v>2016</v>
       </c>
-    </row>
-    <row r="223" spans="1:7">
+      <c r="H222">
+        <v>4472513.434</v>
+      </c>
+      <c r="I222">
+        <v>439982.8536</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="A223" s="1">
-        <v>4363</v>
+        <v>221</v>
       </c>
       <c r="B223">
         <v>13968622</v>
       </c>
       <c r="C223" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D223">
         <v>40.41912</v>
@@ -5716,21 +7054,27 @@
         <v>-3.61958</v>
       </c>
       <c r="F223" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G223">
         <v>2016</v>
       </c>
-    </row>
-    <row r="224" spans="1:7">
+      <c r="H223">
+        <v>4474693.643</v>
+      </c>
+      <c r="I223">
+        <v>447607.4973</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="A224" s="1">
-        <v>4369</v>
+        <v>222</v>
       </c>
       <c r="B224">
         <v>13994451</v>
       </c>
       <c r="C224" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D224">
         <v>40.41699</v>
@@ -5739,21 +7083,27 @@
         <v>-3.67616</v>
       </c>
       <c r="F224" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G224">
         <v>2016</v>
       </c>
-    </row>
-    <row r="225" spans="1:7">
+      <c r="H224">
+        <v>4474469.277</v>
+      </c>
+      <c r="I224">
+        <v>442791.7959</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="A225" s="1">
-        <v>4374</v>
+        <v>223</v>
       </c>
       <c r="B225">
         <v>14005207</v>
       </c>
       <c r="C225" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D225">
         <v>40.4291</v>
@@ -5762,21 +7112,27 @@
         <v>-3.71896</v>
       </c>
       <c r="F225" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G225">
         <v>2016</v>
       </c>
-    </row>
-    <row r="226" spans="1:7">
+      <c r="H225">
+        <v>4475533.294</v>
+      </c>
+      <c r="I225">
+        <v>439109.0847</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
       <c r="A226" s="1">
-        <v>4385</v>
+        <v>224</v>
       </c>
       <c r="B226">
         <v>14037440</v>
       </c>
       <c r="C226" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D226">
         <v>40.4088</v>
@@ -5785,21 +7141,27 @@
         <v>-3.69884</v>
       </c>
       <c r="F226" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G226">
         <v>2016</v>
       </c>
-    </row>
-    <row r="227" spans="1:7">
+      <c r="H226">
+        <v>4473417.211</v>
+      </c>
+      <c r="I226">
+        <v>440397.1764</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="A227" s="1">
-        <v>4395</v>
+        <v>225</v>
       </c>
       <c r="B227">
         <v>14063187</v>
       </c>
       <c r="C227" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D227">
         <v>40.44177</v>
@@ -5808,21 +7170,27 @@
         <v>-3.67602</v>
       </c>
       <c r="F227" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G227">
         <v>2016</v>
       </c>
-    </row>
-    <row r="228" spans="1:7">
+      <c r="H227">
+        <v>4477279.652</v>
+      </c>
+      <c r="I227">
+        <v>443241.5164</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="A228" s="1">
-        <v>4432</v>
+        <v>226</v>
       </c>
       <c r="B228">
         <v>14226151</v>
       </c>
       <c r="C228" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D228">
         <v>40.42632</v>
@@ -5831,21 +7199,27 @@
         <v>-3.7056</v>
       </c>
       <c r="F228" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G228">
         <v>2016</v>
       </c>
-    </row>
-    <row r="229" spans="1:7">
+      <c r="H228">
+        <v>4475244.247</v>
+      </c>
+      <c r="I228">
+        <v>440020.8477</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
       <c r="A229" s="1">
-        <v>4467</v>
+        <v>227</v>
       </c>
       <c r="B229">
         <v>14269186</v>
       </c>
       <c r="C229" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D229">
         <v>40.42011</v>
@@ -5854,21 +7228,27 @@
         <v>-3.71105</v>
       </c>
       <c r="F229" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G229">
         <v>2016</v>
       </c>
-    </row>
-    <row r="230" spans="1:7">
+      <c r="H229">
+        <v>4474110.875</v>
+      </c>
+      <c r="I229">
+        <v>439417.7914</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="A230" s="1">
-        <v>4566</v>
+        <v>228</v>
       </c>
       <c r="B230">
         <v>14565087</v>
       </c>
       <c r="C230" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D230">
         <v>40.41098</v>
@@ -5877,21 +7257,27 @@
         <v>-3.70564</v>
       </c>
       <c r="F230" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G230">
         <v>2016</v>
       </c>
-    </row>
-    <row r="231" spans="1:7">
+      <c r="H230">
+        <v>4473417.211</v>
+      </c>
+      <c r="I230">
+        <v>440397.1764</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
       <c r="A231" s="1">
-        <v>4597</v>
+        <v>229</v>
       </c>
       <c r="B231">
         <v>14649505</v>
       </c>
       <c r="C231" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D231">
         <v>40.4134</v>
@@ -5900,21 +7286,27 @@
         <v>-3.69638</v>
       </c>
       <c r="F231" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G231">
         <v>2016</v>
       </c>
-    </row>
-    <row r="232" spans="1:7">
+      <c r="H231">
+        <v>4474035.577</v>
+      </c>
+      <c r="I231">
+        <v>440880.1521</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
       <c r="A232" s="1">
-        <v>4612</v>
+        <v>230</v>
       </c>
       <c r="B232">
         <v>14703032</v>
       </c>
       <c r="C232" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D232">
         <v>40.44669</v>
@@ -5923,21 +7315,27 @@
         <v>-3.67047</v>
       </c>
       <c r="F232" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G232">
         <v>2016</v>
       </c>
-    </row>
-    <row r="233" spans="1:7">
+      <c r="H232">
+        <v>4477733.182</v>
+      </c>
+      <c r="I232">
+        <v>442929.7851</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
       <c r="A233" s="1">
-        <v>4631</v>
+        <v>231</v>
       </c>
       <c r="B233">
         <v>14750346</v>
       </c>
       <c r="C233" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D233">
         <v>40.47544</v>
@@ -5946,21 +7344,27 @@
         <v>-3.57613</v>
       </c>
       <c r="F233" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G233">
         <v>2016</v>
       </c>
-    </row>
-    <row r="234" spans="1:7">
+      <c r="H233">
+        <v>4480530.185</v>
+      </c>
+      <c r="I233">
+        <v>450931.3676</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
       <c r="A234" s="1">
-        <v>4646</v>
+        <v>232</v>
       </c>
       <c r="B234">
         <v>14830273</v>
       </c>
       <c r="C234" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D234">
         <v>40.41068</v>
@@ -5969,21 +7373,27 @@
         <v>-3.70255</v>
       </c>
       <c r="F234" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G234">
         <v>2016</v>
       </c>
-    </row>
-    <row r="235" spans="1:7">
+      <c r="H234">
+        <v>4473417.211</v>
+      </c>
+      <c r="I234">
+        <v>440397.1764</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
       <c r="A235" s="1">
-        <v>4651</v>
+        <v>233</v>
       </c>
       <c r="B235">
         <v>14850272</v>
       </c>
       <c r="C235" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D235">
         <v>40.43969</v>
@@ -5992,21 +7402,27 @@
         <v>-3.60883</v>
       </c>
       <c r="F235" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G235">
         <v>2016</v>
       </c>
-    </row>
-    <row r="236" spans="1:7">
+      <c r="H235">
+        <v>4477135.693</v>
+      </c>
+      <c r="I235">
+        <v>448224.083</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
       <c r="A236" s="1">
-        <v>4678</v>
+        <v>234</v>
       </c>
       <c r="B236">
         <v>14927666</v>
       </c>
       <c r="C236" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D236">
         <v>40.41257</v>
@@ -6015,21 +7431,27 @@
         <v>-3.71358</v>
       </c>
       <c r="F236" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G236">
         <v>2016</v>
       </c>
-    </row>
-    <row r="237" spans="1:7">
+      <c r="H236">
+        <v>4474110.875</v>
+      </c>
+      <c r="I236">
+        <v>439417.7914</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
       <c r="A237" s="1">
-        <v>4684</v>
+        <v>235</v>
       </c>
       <c r="B237">
         <v>14945605</v>
       </c>
       <c r="C237" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D237">
         <v>40.42331</v>
@@ -6038,21 +7460,27 @@
         <v>-3.70287</v>
       </c>
       <c r="F237" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G237">
         <v>2016</v>
       </c>
-    </row>
-    <row r="238" spans="1:7">
+      <c r="H237">
+        <v>4475244.247</v>
+      </c>
+      <c r="I237">
+        <v>440020.8477</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
       <c r="A238" s="1">
-        <v>4696</v>
+        <v>236</v>
       </c>
       <c r="B238">
         <v>14961129</v>
       </c>
       <c r="C238" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D238">
         <v>40.40621</v>
@@ -6061,21 +7489,27 @@
         <v>-3.70795</v>
       </c>
       <c r="F238" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G238">
         <v>2016</v>
       </c>
-    </row>
-    <row r="239" spans="1:7">
+      <c r="H238">
+        <v>4473417.211</v>
+      </c>
+      <c r="I238">
+        <v>440397.1764</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
       <c r="A239" s="1">
-        <v>4701</v>
+        <v>237</v>
       </c>
       <c r="B239">
         <v>14983335</v>
       </c>
       <c r="C239" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D239">
         <v>40.4144</v>
@@ -6084,21 +7518,27 @@
         <v>-3.69989</v>
       </c>
       <c r="F239" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G239">
         <v>2016</v>
       </c>
-    </row>
-    <row r="240" spans="1:7">
+      <c r="H239">
+        <v>4474035.577</v>
+      </c>
+      <c r="I239">
+        <v>440880.1521</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
       <c r="A240" s="1">
-        <v>4710</v>
+        <v>238</v>
       </c>
       <c r="B240">
         <v>15005723</v>
       </c>
       <c r="C240" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D240">
         <v>40.42997</v>
@@ -6107,21 +7547,27 @@
         <v>-3.68501</v>
       </c>
       <c r="F240" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G240">
         <v>2016</v>
       </c>
-    </row>
-    <row r="241" spans="1:7">
+      <c r="H240">
+        <v>4476104.298</v>
+      </c>
+      <c r="I240">
+        <v>441959.5528</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
       <c r="A241" s="1">
-        <v>4714</v>
+        <v>239</v>
       </c>
       <c r="B241">
         <v>15012720</v>
       </c>
       <c r="C241" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D241">
         <v>40.42558</v>
@@ -6130,21 +7576,27 @@
         <v>-3.66212</v>
       </c>
       <c r="F241" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G241">
         <v>2016</v>
       </c>
-    </row>
-    <row r="242" spans="1:7">
+      <c r="H241">
+        <v>4475116.489</v>
+      </c>
+      <c r="I241">
+        <v>443691.2602</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
       <c r="A242" s="1">
-        <v>4772</v>
+        <v>240</v>
       </c>
       <c r="B242">
         <v>15156311</v>
       </c>
       <c r="C242" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D242">
         <v>40.42076</v>
@@ -6153,21 +7605,27 @@
         <v>-3.70705</v>
       </c>
       <c r="F242" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G242">
         <v>2016</v>
       </c>
-    </row>
-    <row r="243" spans="1:7">
+      <c r="H242">
+        <v>4474110.875</v>
+      </c>
+      <c r="I242">
+        <v>439417.7914</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
       <c r="A243" s="1">
-        <v>4773</v>
+        <v>241</v>
       </c>
       <c r="B243">
         <v>15156497</v>
       </c>
       <c r="C243" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D243">
         <v>40.42081</v>
@@ -6176,21 +7634,27 @@
         <v>-3.70726</v>
       </c>
       <c r="F243" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G243">
         <v>2016</v>
       </c>
-    </row>
-    <row r="244" spans="1:7">
+      <c r="H243">
+        <v>4474110.875</v>
+      </c>
+      <c r="I243">
+        <v>439417.7914</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
       <c r="A244" s="1">
-        <v>4774</v>
+        <v>242</v>
       </c>
       <c r="B244">
         <v>15156610</v>
       </c>
       <c r="C244" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D244">
         <v>40.42101</v>
@@ -6199,21 +7663,27 @@
         <v>-3.70714</v>
       </c>
       <c r="F244" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G244">
         <v>2016</v>
       </c>
-    </row>
-    <row r="245" spans="1:7">
+      <c r="H244">
+        <v>4474110.875</v>
+      </c>
+      <c r="I244">
+        <v>439417.7914</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
       <c r="A245" s="1">
-        <v>4775</v>
+        <v>243</v>
       </c>
       <c r="B245">
         <v>15156671</v>
       </c>
       <c r="C245" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D245">
         <v>40.42125</v>
@@ -6222,21 +7692,27 @@
         <v>-3.70745</v>
       </c>
       <c r="F245" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G245">
         <v>2016</v>
       </c>
-    </row>
-    <row r="246" spans="1:7">
+      <c r="H245">
+        <v>4474110.875</v>
+      </c>
+      <c r="I245">
+        <v>439417.7914</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
       <c r="A246" s="1">
-        <v>4776</v>
+        <v>244</v>
       </c>
       <c r="B246">
         <v>15156675</v>
       </c>
       <c r="C246" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D246">
         <v>40.4319</v>
@@ -6245,21 +7721,27 @@
         <v>-3.71203</v>
       </c>
       <c r="F246" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G246">
         <v>2016</v>
       </c>
-    </row>
-    <row r="247" spans="1:7">
+      <c r="H246">
+        <v>4476283.322</v>
+      </c>
+      <c r="I246">
+        <v>439389.8945</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
       <c r="A247" s="1">
-        <v>4850</v>
+        <v>245</v>
       </c>
       <c r="B247">
         <v>15291082</v>
       </c>
       <c r="C247" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D247">
         <v>40.41957</v>
@@ -6268,21 +7750,27 @@
         <v>-3.7002</v>
       </c>
       <c r="F247" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G247">
         <v>2016</v>
       </c>
-    </row>
-    <row r="248" spans="1:7">
+      <c r="H247">
+        <v>4474314.564</v>
+      </c>
+      <c r="I247">
+        <v>440226.8442</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
       <c r="A248" s="1">
-        <v>4876</v>
+        <v>246</v>
       </c>
       <c r="B248">
         <v>15356355</v>
       </c>
       <c r="C248" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D248">
         <v>40.41634</v>
@@ -6291,21 +7779,27 @@
         <v>-3.70664</v>
       </c>
       <c r="F248" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G248">
         <v>2016</v>
       </c>
-    </row>
-    <row r="249" spans="1:7">
+      <c r="H248">
+        <v>4474314.564</v>
+      </c>
+      <c r="I248">
+        <v>440226.8442</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
       <c r="A249" s="1">
-        <v>4934</v>
+        <v>247</v>
       </c>
       <c r="B249">
         <v>15495427</v>
       </c>
       <c r="C249" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D249">
         <v>40.39632</v>
@@ -6314,21 +7808,27 @@
         <v>-3.71008</v>
       </c>
       <c r="F249" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G249">
         <v>2016</v>
       </c>
-    </row>
-    <row r="250" spans="1:7">
+      <c r="H249">
+        <v>4471676.723</v>
+      </c>
+      <c r="I249">
+        <v>439576.9792</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
       <c r="A250" s="1">
-        <v>5100</v>
+        <v>248</v>
       </c>
       <c r="B250">
         <v>15905678</v>
       </c>
       <c r="C250" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D250">
         <v>40.42383</v>
@@ -6337,21 +7837,27 @@
         <v>-3.70978</v>
       </c>
       <c r="F250" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G250">
         <v>2016</v>
       </c>
-    </row>
-    <row r="251" spans="1:7">
+      <c r="H250">
+        <v>4475244.247</v>
+      </c>
+      <c r="I250">
+        <v>440020.8477</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9">
       <c r="A251" s="1">
-        <v>5101</v>
+        <v>249</v>
       </c>
       <c r="B251">
         <v>15907899</v>
       </c>
       <c r="C251" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D251">
         <v>40.37085</v>
@@ -6360,21 +7866,27 @@
         <v>-3.60811</v>
       </c>
       <c r="F251" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G251">
         <v>2016</v>
       </c>
-    </row>
-    <row r="252" spans="1:7">
+      <c r="H251">
+        <v>4466332.267</v>
+      </c>
+      <c r="I251">
+        <v>447496.1334</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9">
       <c r="A252" s="1">
-        <v>5287</v>
+        <v>250</v>
       </c>
       <c r="B252">
         <v>16248615</v>
       </c>
       <c r="C252" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D252">
         <v>40.41276</v>
@@ -6383,21 +7895,27 @@
         <v>-3.71878</v>
       </c>
       <c r="F252" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G252">
         <v>2016</v>
       </c>
-    </row>
-    <row r="253" spans="1:7">
+      <c r="H252">
+        <v>4473089.616</v>
+      </c>
+      <c r="I252">
+        <v>439045.6199</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
       <c r="A253" s="1">
-        <v>5299</v>
+        <v>251</v>
       </c>
       <c r="B253">
         <v>16264717</v>
       </c>
       <c r="C253" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D253">
         <v>40.41038</v>
@@ -6406,21 +7924,27 @@
         <v>-3.70025</v>
       </c>
       <c r="F253" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G253">
         <v>2016</v>
       </c>
-    </row>
-    <row r="254" spans="1:7">
+      <c r="H253">
+        <v>4473417.211</v>
+      </c>
+      <c r="I253">
+        <v>440397.1764</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
       <c r="A254" s="1">
-        <v>6562</v>
+        <v>252</v>
       </c>
       <c r="B254">
         <v>18761718</v>
       </c>
       <c r="C254" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D254">
         <v>40.42071</v>
@@ -6429,21 +7953,27 @@
         <v>-3.69692</v>
       </c>
       <c r="F254" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G254">
         <v>2016</v>
       </c>
-    </row>
-    <row r="255" spans="1:7">
+      <c r="H254">
+        <v>4475014.208</v>
+      </c>
+      <c r="I254">
+        <v>440900.7625</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9">
       <c r="A255" s="1">
-        <v>6602</v>
+        <v>253</v>
       </c>
       <c r="B255">
         <v>18763018</v>
       </c>
       <c r="C255" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D255">
         <v>40.43734</v>
@@ -6452,21 +7982,27 @@
         <v>-3.7024</v>
       </c>
       <c r="F255" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G255">
         <v>2016</v>
       </c>
-    </row>
-    <row r="256" spans="1:7">
+      <c r="H255">
+        <v>4476037.29</v>
+      </c>
+      <c r="I255">
+        <v>440530.8517</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
       <c r="A256" s="1">
-        <v>6604</v>
+        <v>254</v>
       </c>
       <c r="B256">
         <v>18763027</v>
       </c>
       <c r="C256" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D256">
         <v>40.43772</v>
@@ -6475,21 +8011,27 @@
         <v>-3.7032</v>
       </c>
       <c r="F256" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G256">
         <v>2016</v>
       </c>
-    </row>
-    <row r="257" spans="1:7">
+      <c r="H256">
+        <v>4476037.29</v>
+      </c>
+      <c r="I256">
+        <v>440530.8517</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
       <c r="A257" s="1">
-        <v>6612</v>
+        <v>255</v>
       </c>
       <c r="B257">
         <v>18763086</v>
       </c>
       <c r="C257" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D257">
         <v>40.43734</v>
@@ -6498,10 +8040,16 @@
         <v>-3.70241</v>
       </c>
       <c r="F257" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G257">
         <v>2016</v>
+      </c>
+      <c r="H257">
+        <v>4476037.29</v>
+      </c>
+      <c r="I257">
+        <v>440530.8517</v>
       </c>
     </row>
   </sheetData>
